--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="146">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -370,6 +370,24 @@
     <t>['45+4']</t>
   </si>
   <si>
+    <t>['9', '40']</t>
+  </si>
+  <si>
+    <t>['45+1', '51']</t>
+  </si>
+  <si>
+    <t>['31', '45', '88']</t>
+  </si>
+  <si>
+    <t>['47']</t>
+  </si>
+  <si>
+    <t>['13', '30']</t>
+  </si>
+  <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
     <t>['47', '90+7']</t>
   </si>
   <si>
@@ -425,6 +443,15 @@
   </si>
   <si>
     <t>['34', '40', '61']</t>
+  </si>
+  <si>
+    <t>['27', '55']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['27', '35']</t>
   </si>
 </sst>
 </file>
@@ -786,7 +813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK47"/>
+  <dimension ref="A1:BK53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1030,7 +1057,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1499,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT4">
         <v>0.33</v>
@@ -1794,7 +1821,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -1884,7 +1911,7 @@
         <v>1.33</v>
       </c>
       <c r="AT6">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -1985,7 +2012,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2072,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AT7">
         <v>0.67</v>
@@ -2176,7 +2203,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2263,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT8">
         <v>0.5</v>
@@ -2457,7 +2484,7 @@
         <v>1.33</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2558,7 +2585,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2645,10 +2672,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AT10">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2839,7 +2866,7 @@
         <v>3</v>
       </c>
       <c r="AT11">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3322,7 +3349,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3409,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT14">
         <v>2</v>
@@ -3513,7 +3540,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -3895,7 +3922,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -3982,10 +4009,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT17">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4086,7 +4113,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4173,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT18">
         <v>1.33</v>
@@ -4749,7 +4776,7 @@
         <v>3</v>
       </c>
       <c r="AT21">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU21">
         <v>1.37</v>
@@ -4850,7 +4877,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="Q22">
         <v>10</v>
@@ -4937,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AT22">
         <v>1.33</v>
@@ -5128,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT23">
         <v>1.33</v>
@@ -5513,7 +5540,7 @@
         <v>2</v>
       </c>
       <c r="AT25">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU25">
         <v>2.14</v>
@@ -5805,7 +5832,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="Q27">
         <v>7</v>
@@ -5892,7 +5919,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT27">
         <v>0</v>
@@ -5996,7 +6023,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6274,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT29">
         <v>0.33</v>
@@ -6378,7 +6405,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6569,7 +6596,7 @@
         <v>94</v>
       </c>
       <c r="P31" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6659,7 +6686,7 @@
         <v>0.33</v>
       </c>
       <c r="AT31">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU31">
         <v>1.7</v>
@@ -7142,7 +7169,7 @@
         <v>94</v>
       </c>
       <c r="P34" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="Q34">
         <v>1</v>
@@ -7229,7 +7256,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT34">
         <v>1.75</v>
@@ -7420,10 +7447,10 @@
         <v>0.5</v>
       </c>
       <c r="AS35">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT35">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU35">
         <v>1.32</v>
@@ -7524,7 +7551,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7614,7 +7641,7 @@
         <v>3</v>
       </c>
       <c r="AT36">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU36">
         <v>1.09</v>
@@ -7993,7 +8020,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AT38">
         <v>1.33</v>
@@ -8184,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AT39">
         <v>0.5</v>
@@ -8288,7 +8315,7 @@
         <v>94</v>
       </c>
       <c r="P40" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="Q40">
         <v>10</v>
@@ -8566,7 +8593,7 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT41">
         <v>0</v>
@@ -8670,7 +8697,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -8861,7 +8888,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -8951,7 +8978,7 @@
         <v>2.33</v>
       </c>
       <c r="AT43">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU43">
         <v>1.34</v>
@@ -9052,7 +9079,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -9767,6 +9794,1152 @@
       </c>
       <c r="BK47">
         <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:63">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>5139125</v>
+      </c>
+      <c r="C48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="2">
+        <v>44996.66666666666</v>
+      </c>
+      <c r="F48">
+        <v>7</v>
+      </c>
+      <c r="G48" t="s">
+        <v>80</v>
+      </c>
+      <c r="H48" t="s">
+        <v>65</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+      <c r="O48" t="s">
+        <v>118</v>
+      </c>
+      <c r="P48" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q48">
+        <v>3</v>
+      </c>
+      <c r="R48">
+        <v>5</v>
+      </c>
+      <c r="S48">
+        <v>8</v>
+      </c>
+      <c r="T48">
+        <v>2.21</v>
+      </c>
+      <c r="U48">
+        <v>2.13</v>
+      </c>
+      <c r="V48">
+        <v>5.15</v>
+      </c>
+      <c r="W48">
+        <v>1.39</v>
+      </c>
+      <c r="X48">
+        <v>2.77</v>
+      </c>
+      <c r="Y48">
+        <v>2.85</v>
+      </c>
+      <c r="Z48">
+        <v>1.37</v>
+      </c>
+      <c r="AA48">
+        <v>7.5</v>
+      </c>
+      <c r="AB48">
+        <v>1.06</v>
+      </c>
+      <c r="AC48">
+        <v>1.75</v>
+      </c>
+      <c r="AD48">
+        <v>3.53</v>
+      </c>
+      <c r="AE48">
+        <v>4.5</v>
+      </c>
+      <c r="AF48">
+        <v>1.02</v>
+      </c>
+      <c r="AG48">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH48">
+        <v>1.29</v>
+      </c>
+      <c r="AI48">
+        <v>3.18</v>
+      </c>
+      <c r="AJ48">
+        <v>1.96</v>
+      </c>
+      <c r="AK48">
+        <v>1.74</v>
+      </c>
+      <c r="AL48">
+        <v>1.93</v>
+      </c>
+      <c r="AM48">
+        <v>1.75</v>
+      </c>
+      <c r="AN48">
+        <v>1.18</v>
+      </c>
+      <c r="AO48">
+        <v>1.27</v>
+      </c>
+      <c r="AP48">
+        <v>2.05</v>
+      </c>
+      <c r="AQ48">
+        <v>0.67</v>
+      </c>
+      <c r="AR48">
+        <v>0</v>
+      </c>
+      <c r="AS48">
+        <v>1.25</v>
+      </c>
+      <c r="AT48">
+        <v>0</v>
+      </c>
+      <c r="AU48">
+        <v>1.18</v>
+      </c>
+      <c r="AV48">
+        <v>0.73</v>
+      </c>
+      <c r="AW48">
+        <v>1.91</v>
+      </c>
+      <c r="AX48">
+        <v>1.36</v>
+      </c>
+      <c r="AY48">
+        <v>8</v>
+      </c>
+      <c r="AZ48">
+        <v>3.88</v>
+      </c>
+      <c r="BA48">
+        <v>1.5</v>
+      </c>
+      <c r="BB48">
+        <v>1.84</v>
+      </c>
+      <c r="BC48">
+        <v>2.31</v>
+      </c>
+      <c r="BD48">
+        <v>3.2</v>
+      </c>
+      <c r="BE48">
+        <v>0</v>
+      </c>
+      <c r="BF48">
+        <v>8</v>
+      </c>
+      <c r="BG48">
+        <v>2</v>
+      </c>
+      <c r="BH48">
+        <v>6</v>
+      </c>
+      <c r="BI48">
+        <v>1</v>
+      </c>
+      <c r="BJ48">
+        <v>14</v>
+      </c>
+      <c r="BK48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:63">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>5139126</v>
+      </c>
+      <c r="C49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="2">
+        <v>44996.70833333334</v>
+      </c>
+      <c r="F49">
+        <v>7</v>
+      </c>
+      <c r="G49" t="s">
+        <v>67</v>
+      </c>
+      <c r="H49" t="s">
+        <v>66</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
+      </c>
+      <c r="M49">
+        <v>2</v>
+      </c>
+      <c r="N49">
+        <v>4</v>
+      </c>
+      <c r="O49" t="s">
+        <v>119</v>
+      </c>
+      <c r="P49" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q49">
+        <v>3</v>
+      </c>
+      <c r="R49">
+        <v>5</v>
+      </c>
+      <c r="S49">
+        <v>8</v>
+      </c>
+      <c r="T49">
+        <v>3.1</v>
+      </c>
+      <c r="U49">
+        <v>1.91</v>
+      </c>
+      <c r="V49">
+        <v>3.75</v>
+      </c>
+      <c r="W49">
+        <v>1.48</v>
+      </c>
+      <c r="X49">
+        <v>2.53</v>
+      </c>
+      <c r="Y49">
+        <v>3.32</v>
+      </c>
+      <c r="Z49">
+        <v>1.29</v>
+      </c>
+      <c r="AA49">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AB49">
+        <v>1.02</v>
+      </c>
+      <c r="AC49">
+        <v>2.25</v>
+      </c>
+      <c r="AD49">
+        <v>2.91</v>
+      </c>
+      <c r="AE49">
+        <v>3.02</v>
+      </c>
+      <c r="AF49">
+        <v>1.05</v>
+      </c>
+      <c r="AG49">
+        <v>7.1</v>
+      </c>
+      <c r="AH49">
+        <v>1.48</v>
+      </c>
+      <c r="AI49">
+        <v>2.46</v>
+      </c>
+      <c r="AJ49">
+        <v>2.35</v>
+      </c>
+      <c r="AK49">
+        <v>1.56</v>
+      </c>
+      <c r="AL49">
+        <v>2.04</v>
+      </c>
+      <c r="AM49">
+        <v>1.74</v>
+      </c>
+      <c r="AN49">
+        <v>1.33</v>
+      </c>
+      <c r="AO49">
+        <v>1.35</v>
+      </c>
+      <c r="AP49">
+        <v>1.51</v>
+      </c>
+      <c r="AQ49">
+        <v>3</v>
+      </c>
+      <c r="AR49">
+        <v>1.67</v>
+      </c>
+      <c r="AS49">
+        <v>2.5</v>
+      </c>
+      <c r="AT49">
+        <v>1.5</v>
+      </c>
+      <c r="AU49">
+        <v>1.57</v>
+      </c>
+      <c r="AV49">
+        <v>1.17</v>
+      </c>
+      <c r="AW49">
+        <v>2.74</v>
+      </c>
+      <c r="AX49">
+        <v>1.65</v>
+      </c>
+      <c r="AY49">
+        <v>7</v>
+      </c>
+      <c r="AZ49">
+        <v>2.71</v>
+      </c>
+      <c r="BA49">
+        <v>1.65</v>
+      </c>
+      <c r="BB49">
+        <v>2.1</v>
+      </c>
+      <c r="BC49">
+        <v>2.44</v>
+      </c>
+      <c r="BD49">
+        <v>0</v>
+      </c>
+      <c r="BE49">
+        <v>0</v>
+      </c>
+      <c r="BF49">
+        <v>9</v>
+      </c>
+      <c r="BG49">
+        <v>5</v>
+      </c>
+      <c r="BH49">
+        <v>7</v>
+      </c>
+      <c r="BI49">
+        <v>6</v>
+      </c>
+      <c r="BJ49">
+        <v>16</v>
+      </c>
+      <c r="BK49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:63">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>5139132</v>
+      </c>
+      <c r="C50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="2">
+        <v>44997.70833333334</v>
+      </c>
+      <c r="F50">
+        <v>7</v>
+      </c>
+      <c r="G50" t="s">
+        <v>73</v>
+      </c>
+      <c r="H50" t="s">
+        <v>69</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>3</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>4</v>
+      </c>
+      <c r="O50" t="s">
+        <v>120</v>
+      </c>
+      <c r="P50" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q50">
+        <v>-1</v>
+      </c>
+      <c r="R50">
+        <v>-1</v>
+      </c>
+      <c r="S50">
+        <v>-1</v>
+      </c>
+      <c r="T50">
+        <v>3.25</v>
+      </c>
+      <c r="U50">
+        <v>1.95</v>
+      </c>
+      <c r="V50">
+        <v>3.5</v>
+      </c>
+      <c r="W50">
+        <v>1.52</v>
+      </c>
+      <c r="X50">
+        <v>2.35</v>
+      </c>
+      <c r="Y50">
+        <v>3.3</v>
+      </c>
+      <c r="Z50">
+        <v>1.28</v>
+      </c>
+      <c r="AA50">
+        <v>7.75</v>
+      </c>
+      <c r="AB50">
+        <v>1.05</v>
+      </c>
+      <c r="AC50">
+        <v>2.1</v>
+      </c>
+      <c r="AD50">
+        <v>3</v>
+      </c>
+      <c r="AE50">
+        <v>3.3</v>
+      </c>
+      <c r="AF50">
+        <v>1.06</v>
+      </c>
+      <c r="AG50">
+        <v>8</v>
+      </c>
+      <c r="AH50">
+        <v>1.5</v>
+      </c>
+      <c r="AI50">
+        <v>2.5</v>
+      </c>
+      <c r="AJ50">
+        <v>2.37</v>
+      </c>
+      <c r="AK50">
+        <v>1.53</v>
+      </c>
+      <c r="AL50">
+        <v>1.95</v>
+      </c>
+      <c r="AM50">
+        <v>1.68</v>
+      </c>
+      <c r="AN50">
+        <v>1.28</v>
+      </c>
+      <c r="AO50">
+        <v>1.29</v>
+      </c>
+      <c r="AP50">
+        <v>1.64</v>
+      </c>
+      <c r="AQ50">
+        <v>1</v>
+      </c>
+      <c r="AR50">
+        <v>0.33</v>
+      </c>
+      <c r="AS50">
+        <v>1.67</v>
+      </c>
+      <c r="AT50">
+        <v>0.25</v>
+      </c>
+      <c r="AU50">
+        <v>0.67</v>
+      </c>
+      <c r="AV50">
+        <v>1.17</v>
+      </c>
+      <c r="AW50">
+        <v>1.84</v>
+      </c>
+      <c r="AX50">
+        <v>1.61</v>
+      </c>
+      <c r="AY50">
+        <v>7.1</v>
+      </c>
+      <c r="AZ50">
+        <v>2.81</v>
+      </c>
+      <c r="BA50">
+        <v>1.57</v>
+      </c>
+      <c r="BB50">
+        <v>1.97</v>
+      </c>
+      <c r="BC50">
+        <v>2.5</v>
+      </c>
+      <c r="BD50">
+        <v>3.95</v>
+      </c>
+      <c r="BE50">
+        <v>0</v>
+      </c>
+      <c r="BF50">
+        <v>-1</v>
+      </c>
+      <c r="BG50">
+        <v>-1</v>
+      </c>
+      <c r="BH50">
+        <v>-1</v>
+      </c>
+      <c r="BI50">
+        <v>-1</v>
+      </c>
+      <c r="BJ50">
+        <v>-1</v>
+      </c>
+      <c r="BK50">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:63">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>5139128</v>
+      </c>
+      <c r="C51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="2">
+        <v>44997.70833333334</v>
+      </c>
+      <c r="F51">
+        <v>7</v>
+      </c>
+      <c r="G51" t="s">
+        <v>71</v>
+      </c>
+      <c r="H51" t="s">
+        <v>72</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51" t="s">
+        <v>121</v>
+      </c>
+      <c r="P51" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q51">
+        <v>-1</v>
+      </c>
+      <c r="R51">
+        <v>-1</v>
+      </c>
+      <c r="S51">
+        <v>-1</v>
+      </c>
+      <c r="T51">
+        <v>3.31</v>
+      </c>
+      <c r="U51">
+        <v>2.05</v>
+      </c>
+      <c r="V51">
+        <v>3.67</v>
+      </c>
+      <c r="W51">
+        <v>1.49</v>
+      </c>
+      <c r="X51">
+        <v>2.6</v>
+      </c>
+      <c r="Y51">
+        <v>3.22</v>
+      </c>
+      <c r="Z51">
+        <v>1.3</v>
+      </c>
+      <c r="AA51">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB51">
+        <v>1.04</v>
+      </c>
+      <c r="AC51">
+        <v>2</v>
+      </c>
+      <c r="AD51">
+        <v>3</v>
+      </c>
+      <c r="AE51">
+        <v>3.6</v>
+      </c>
+      <c r="AF51">
+        <v>1.07</v>
+      </c>
+      <c r="AG51">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH51">
+        <v>1.39</v>
+      </c>
+      <c r="AI51">
+        <v>2.75</v>
+      </c>
+      <c r="AJ51">
+        <v>2.35</v>
+      </c>
+      <c r="AK51">
+        <v>1.56</v>
+      </c>
+      <c r="AL51">
+        <v>1.9</v>
+      </c>
+      <c r="AM51">
+        <v>1.78</v>
+      </c>
+      <c r="AN51">
+        <v>1.4</v>
+      </c>
+      <c r="AO51">
+        <v>1.34</v>
+      </c>
+      <c r="AP51">
+        <v>1.5</v>
+      </c>
+      <c r="AQ51">
+        <v>3</v>
+      </c>
+      <c r="AR51">
+        <v>0.33</v>
+      </c>
+      <c r="AS51">
+        <v>2.33</v>
+      </c>
+      <c r="AT51">
+        <v>0.5</v>
+      </c>
+      <c r="AU51">
+        <v>1.3</v>
+      </c>
+      <c r="AV51">
+        <v>1.11</v>
+      </c>
+      <c r="AW51">
+        <v>2.41</v>
+      </c>
+      <c r="AX51">
+        <v>1.58</v>
+      </c>
+      <c r="AY51">
+        <v>7.4</v>
+      </c>
+      <c r="AZ51">
+        <v>2.86</v>
+      </c>
+      <c r="BA51">
+        <v>1.38</v>
+      </c>
+      <c r="BB51">
+        <v>1.71</v>
+      </c>
+      <c r="BC51">
+        <v>2.15</v>
+      </c>
+      <c r="BD51">
+        <v>3.1</v>
+      </c>
+      <c r="BE51">
+        <v>4.4</v>
+      </c>
+      <c r="BF51">
+        <v>-1</v>
+      </c>
+      <c r="BG51">
+        <v>-1</v>
+      </c>
+      <c r="BH51">
+        <v>-1</v>
+      </c>
+      <c r="BI51">
+        <v>-1</v>
+      </c>
+      <c r="BJ51">
+        <v>-1</v>
+      </c>
+      <c r="BK51">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:63">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>5139129</v>
+      </c>
+      <c r="C52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="2">
+        <v>44997.70833333334</v>
+      </c>
+      <c r="F52">
+        <v>7</v>
+      </c>
+      <c r="G52" t="s">
+        <v>70</v>
+      </c>
+      <c r="H52" t="s">
+        <v>79</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+      <c r="K52">
+        <v>4</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>2</v>
+      </c>
+      <c r="N52">
+        <v>4</v>
+      </c>
+      <c r="O52" t="s">
+        <v>122</v>
+      </c>
+      <c r="P52" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q52">
+        <v>-1</v>
+      </c>
+      <c r="R52">
+        <v>-1</v>
+      </c>
+      <c r="S52">
+        <v>-1</v>
+      </c>
+      <c r="T52">
+        <v>3.2</v>
+      </c>
+      <c r="U52">
+        <v>1.95</v>
+      </c>
+      <c r="V52">
+        <v>3.4</v>
+      </c>
+      <c r="W52">
+        <v>1.48</v>
+      </c>
+      <c r="X52">
+        <v>2.5</v>
+      </c>
+      <c r="Y52">
+        <v>3.2</v>
+      </c>
+      <c r="Z52">
+        <v>1.3</v>
+      </c>
+      <c r="AA52">
+        <v>8</v>
+      </c>
+      <c r="AB52">
+        <v>1.03</v>
+      </c>
+      <c r="AC52">
+        <v>2.45</v>
+      </c>
+      <c r="AD52">
+        <v>2.95</v>
+      </c>
+      <c r="AE52">
+        <v>2.85</v>
+      </c>
+      <c r="AF52">
+        <v>1.04</v>
+      </c>
+      <c r="AG52">
+        <v>7.8</v>
+      </c>
+      <c r="AH52">
+        <v>1.37</v>
+      </c>
+      <c r="AI52">
+        <v>2.85</v>
+      </c>
+      <c r="AJ52">
+        <v>2.11</v>
+      </c>
+      <c r="AK52">
+        <v>1.65</v>
+      </c>
+      <c r="AL52">
+        <v>1.83</v>
+      </c>
+      <c r="AM52">
+        <v>1.87</v>
+      </c>
+      <c r="AN52">
+        <v>1.36</v>
+      </c>
+      <c r="AO52">
+        <v>1.28</v>
+      </c>
+      <c r="AP52">
+        <v>1.44</v>
+      </c>
+      <c r="AQ52">
+        <v>0.67</v>
+      </c>
+      <c r="AR52">
+        <v>0</v>
+      </c>
+      <c r="AS52">
+        <v>0.75</v>
+      </c>
+      <c r="AT52">
+        <v>0.33</v>
+      </c>
+      <c r="AU52">
+        <v>1.29</v>
+      </c>
+      <c r="AV52">
+        <v>1.25</v>
+      </c>
+      <c r="AW52">
+        <v>2.54</v>
+      </c>
+      <c r="AX52">
+        <v>1.94</v>
+      </c>
+      <c r="AY52">
+        <v>7.2</v>
+      </c>
+      <c r="AZ52">
+        <v>2.16</v>
+      </c>
+      <c r="BA52">
+        <v>1.32</v>
+      </c>
+      <c r="BB52">
+        <v>1.59</v>
+      </c>
+      <c r="BC52">
+        <v>1.96</v>
+      </c>
+      <c r="BD52">
+        <v>2.47</v>
+      </c>
+      <c r="BE52">
+        <v>3.8</v>
+      </c>
+      <c r="BF52">
+        <v>-1</v>
+      </c>
+      <c r="BG52">
+        <v>-1</v>
+      </c>
+      <c r="BH52">
+        <v>-1</v>
+      </c>
+      <c r="BI52">
+        <v>-1</v>
+      </c>
+      <c r="BJ52">
+        <v>-1</v>
+      </c>
+      <c r="BK52">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:63">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>5139130</v>
+      </c>
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="2">
+        <v>44997.70833333334</v>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+      <c r="G53" t="s">
+        <v>77</v>
+      </c>
+      <c r="H53" t="s">
+        <v>76</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53" t="s">
+        <v>123</v>
+      </c>
+      <c r="P53" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q53">
+        <v>-1</v>
+      </c>
+      <c r="R53">
+        <v>-1</v>
+      </c>
+      <c r="S53">
+        <v>-1</v>
+      </c>
+      <c r="T53">
+        <v>2.88</v>
+      </c>
+      <c r="U53">
+        <v>1.91</v>
+      </c>
+      <c r="V53">
+        <v>4.5</v>
+      </c>
+      <c r="W53">
+        <v>1.56</v>
+      </c>
+      <c r="X53">
+        <v>2.41</v>
+      </c>
+      <c r="Y53">
+        <v>3.5</v>
+      </c>
+      <c r="Z53">
+        <v>1.25</v>
+      </c>
+      <c r="AA53">
+        <v>9.5</v>
+      </c>
+      <c r="AB53">
+        <v>1.04</v>
+      </c>
+      <c r="AC53">
+        <v>2.3</v>
+      </c>
+      <c r="AD53">
+        <v>2.9</v>
+      </c>
+      <c r="AE53">
+        <v>3</v>
+      </c>
+      <c r="AF53">
+        <v>1.07</v>
+      </c>
+      <c r="AG53">
+        <v>6.5</v>
+      </c>
+      <c r="AH53">
+        <v>1.5</v>
+      </c>
+      <c r="AI53">
+        <v>2.45</v>
+      </c>
+      <c r="AJ53">
+        <v>2.35</v>
+      </c>
+      <c r="AK53">
+        <v>1.56</v>
+      </c>
+      <c r="AL53">
+        <v>2.35</v>
+      </c>
+      <c r="AM53">
+        <v>1.57</v>
+      </c>
+      <c r="AN53">
+        <v>1.19</v>
+      </c>
+      <c r="AO53">
+        <v>1.32</v>
+      </c>
+      <c r="AP53">
+        <v>1.98</v>
+      </c>
+      <c r="AQ53">
+        <v>2</v>
+      </c>
+      <c r="AR53">
+        <v>0</v>
+      </c>
+      <c r="AS53">
+        <v>2.25</v>
+      </c>
+      <c r="AT53">
+        <v>0</v>
+      </c>
+      <c r="AU53">
+        <v>1.6</v>
+      </c>
+      <c r="AV53">
+        <v>1.01</v>
+      </c>
+      <c r="AW53">
+        <v>2.61</v>
+      </c>
+      <c r="AX53">
+        <v>1.4</v>
+      </c>
+      <c r="AY53">
+        <v>8</v>
+      </c>
+      <c r="AZ53">
+        <v>3.6</v>
+      </c>
+      <c r="BA53">
+        <v>1.47</v>
+      </c>
+      <c r="BB53">
+        <v>1.81</v>
+      </c>
+      <c r="BC53">
+        <v>2.25</v>
+      </c>
+      <c r="BD53">
+        <v>3.5</v>
+      </c>
+      <c r="BE53">
+        <v>5.1</v>
+      </c>
+      <c r="BF53">
+        <v>-1</v>
+      </c>
+      <c r="BG53">
+        <v>-1</v>
+      </c>
+      <c r="BH53">
+        <v>-1</v>
+      </c>
+      <c r="BI53">
+        <v>-1</v>
+      </c>
+      <c r="BJ53">
+        <v>-1</v>
+      </c>
+      <c r="BK53">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="147">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -386,6 +386,9 @@
   </si>
   <si>
     <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['49']</t>
   </si>
   <si>
     <t>['47', '90+7']</t>
@@ -813,7 +816,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK53"/>
+  <dimension ref="A1:BK55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1057,7 +1060,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1338,7 +1341,7 @@
         <v>3</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1821,7 +1824,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2012,7 +2015,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2203,7 +2206,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2293,7 +2296,7 @@
         <v>2.33</v>
       </c>
       <c r="AT8">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2585,7 +2588,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -3054,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT12">
         <v>0</v>
@@ -3349,7 +3352,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3540,7 +3543,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -3627,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT15">
         <v>1</v>
@@ -3821,7 +3824,7 @@
         <v>2.33</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -3922,7 +3925,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4113,7 +4116,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4582,7 +4585,7 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT20">
         <v>1.75</v>
@@ -4877,7 +4880,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22">
         <v>10</v>
@@ -5537,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT25">
         <v>0.33</v>
@@ -5832,7 +5835,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q27">
         <v>7</v>
@@ -5922,7 +5925,7 @@
         <v>2.25</v>
       </c>
       <c r="AT27">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU27">
         <v>1.9</v>
@@ -6023,7 +6026,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6405,7 +6408,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6596,7 +6599,7 @@
         <v>94</v>
       </c>
       <c r="P31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7065,7 +7068,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT33">
         <v>0</v>
@@ -7169,7 +7172,7 @@
         <v>94</v>
       </c>
       <c r="P34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q34">
         <v>1</v>
@@ -7551,7 +7554,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8214,7 +8217,7 @@
         <v>0.75</v>
       </c>
       <c r="AT39">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU39">
         <v>1.25</v>
@@ -8315,7 +8318,7 @@
         <v>94</v>
       </c>
       <c r="P40" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q40">
         <v>10</v>
@@ -8697,7 +8700,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -8888,7 +8891,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9079,7 +9082,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -10034,7 +10037,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10228,13 +10231,13 @@
         <v>85</v>
       </c>
       <c r="Q50">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R50">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S50">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T50">
         <v>3.25</v>
@@ -10351,22 +10354,22 @@
         <v>0</v>
       </c>
       <c r="BF50">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG50">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH50">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BI50">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BJ50">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BK50">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:63">
@@ -10416,16 +10419,16 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q51">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R51">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S51">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T51">
         <v>3.31</v>
@@ -10542,22 +10545,22 @@
         <v>4.4</v>
       </c>
       <c r="BF51">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG51">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH51">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BI51">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BJ51">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BK51">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:63">
@@ -10607,16 +10610,16 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q52">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R52">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S52">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T52">
         <v>3.2</v>
@@ -10733,22 +10736,22 @@
         <v>3.8</v>
       </c>
       <c r="BF52">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG52">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BH52">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BI52">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BJ52">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BK52">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:63">
@@ -10801,13 +10804,13 @@
         <v>94</v>
       </c>
       <c r="Q53">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R53">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S53">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T53">
         <v>2.88</v>
@@ -10924,22 +10927,404 @@
         <v>5.1</v>
       </c>
       <c r="BF53">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BG53">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH53">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BI53">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BJ53">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BK53">
-        <v>-1</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:63">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>5139127</v>
+      </c>
+      <c r="C54" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" s="2">
+        <v>44998.75</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54" t="s">
+        <v>75</v>
+      </c>
+      <c r="H54" t="s">
+        <v>74</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54" t="s">
+        <v>94</v>
+      </c>
+      <c r="P54" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q54">
+        <v>4</v>
+      </c>
+      <c r="R54">
+        <v>3</v>
+      </c>
+      <c r="S54">
+        <v>7</v>
+      </c>
+      <c r="T54">
+        <v>2.88</v>
+      </c>
+      <c r="U54">
+        <v>1.91</v>
+      </c>
+      <c r="V54">
+        <v>4.33</v>
+      </c>
+      <c r="W54">
+        <v>1.46</v>
+      </c>
+      <c r="X54">
+        <v>2.29</v>
+      </c>
+      <c r="Y54">
+        <v>3.4</v>
+      </c>
+      <c r="Z54">
+        <v>1.27</v>
+      </c>
+      <c r="AA54">
+        <v>9.5</v>
+      </c>
+      <c r="AB54">
+        <v>1.03</v>
+      </c>
+      <c r="AC54">
+        <v>2.15</v>
+      </c>
+      <c r="AD54">
+        <v>3.01</v>
+      </c>
+      <c r="AE54">
+        <v>3.59</v>
+      </c>
+      <c r="AF54">
+        <v>1.06</v>
+      </c>
+      <c r="AG54">
+        <v>7.25</v>
+      </c>
+      <c r="AH54">
+        <v>1.39</v>
+      </c>
+      <c r="AI54">
+        <v>2.55</v>
+      </c>
+      <c r="AJ54">
+        <v>2.4</v>
+      </c>
+      <c r="AK54">
+        <v>1.53</v>
+      </c>
+      <c r="AL54">
+        <v>1.86</v>
+      </c>
+      <c r="AM54">
+        <v>1.71</v>
+      </c>
+      <c r="AN54">
+        <v>1.25</v>
+      </c>
+      <c r="AO54">
+        <v>1.32</v>
+      </c>
+      <c r="AP54">
+        <v>1.6</v>
+      </c>
+      <c r="AQ54">
+        <v>3</v>
+      </c>
+      <c r="AR54">
+        <v>0</v>
+      </c>
+      <c r="AS54">
+        <v>2.33</v>
+      </c>
+      <c r="AT54">
+        <v>0.25</v>
+      </c>
+      <c r="AU54">
+        <v>1.08</v>
+      </c>
+      <c r="AV54">
+        <v>0.66</v>
+      </c>
+      <c r="AW54">
+        <v>1.74</v>
+      </c>
+      <c r="AX54">
+        <v>1.64</v>
+      </c>
+      <c r="AY54">
+        <v>7.1</v>
+      </c>
+      <c r="AZ54">
+        <v>2.72</v>
+      </c>
+      <c r="BA54">
+        <v>1.52</v>
+      </c>
+      <c r="BB54">
+        <v>1.88</v>
+      </c>
+      <c r="BC54">
+        <v>2.37</v>
+      </c>
+      <c r="BD54">
+        <v>3.2</v>
+      </c>
+      <c r="BE54">
+        <v>0</v>
+      </c>
+      <c r="BF54">
+        <v>2</v>
+      </c>
+      <c r="BG54">
+        <v>0</v>
+      </c>
+      <c r="BH54">
+        <v>6</v>
+      </c>
+      <c r="BI54">
+        <v>8</v>
+      </c>
+      <c r="BJ54">
+        <v>8</v>
+      </c>
+      <c r="BK54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:63">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>5139131</v>
+      </c>
+      <c r="C55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="2">
+        <v>44998.83680555555</v>
+      </c>
+      <c r="F55">
+        <v>7</v>
+      </c>
+      <c r="G55" t="s">
+        <v>78</v>
+      </c>
+      <c r="H55" t="s">
+        <v>68</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55" t="s">
+        <v>124</v>
+      </c>
+      <c r="P55" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q55">
+        <v>4</v>
+      </c>
+      <c r="R55">
+        <v>3</v>
+      </c>
+      <c r="S55">
+        <v>7</v>
+      </c>
+      <c r="T55">
+        <v>2.75</v>
+      </c>
+      <c r="U55">
+        <v>2.05</v>
+      </c>
+      <c r="V55">
+        <v>4</v>
+      </c>
+      <c r="W55">
+        <v>1.4</v>
+      </c>
+      <c r="X55">
+        <v>2.75</v>
+      </c>
+      <c r="Y55">
+        <v>3</v>
+      </c>
+      <c r="Z55">
+        <v>1.33</v>
+      </c>
+      <c r="AA55">
+        <v>8</v>
+      </c>
+      <c r="AB55">
+        <v>1.06</v>
+      </c>
+      <c r="AC55">
+        <v>2.1</v>
+      </c>
+      <c r="AD55">
+        <v>3.1</v>
+      </c>
+      <c r="AE55">
+        <v>3.3</v>
+      </c>
+      <c r="AF55">
+        <v>1.05</v>
+      </c>
+      <c r="AG55">
+        <v>9.65</v>
+      </c>
+      <c r="AH55">
+        <v>1.32</v>
+      </c>
+      <c r="AI55">
+        <v>2.92</v>
+      </c>
+      <c r="AJ55">
+        <v>2</v>
+      </c>
+      <c r="AK55">
+        <v>1.72</v>
+      </c>
+      <c r="AL55">
+        <v>1.85</v>
+      </c>
+      <c r="AM55">
+        <v>1.96</v>
+      </c>
+      <c r="AN55">
+        <v>1.29</v>
+      </c>
+      <c r="AO55">
+        <v>1.29</v>
+      </c>
+      <c r="AP55">
+        <v>1.62</v>
+      </c>
+      <c r="AQ55">
+        <v>2</v>
+      </c>
+      <c r="AR55">
+        <v>0.5</v>
+      </c>
+      <c r="AS55">
+        <v>2.25</v>
+      </c>
+      <c r="AT55">
+        <v>0.33</v>
+      </c>
+      <c r="AU55">
+        <v>1.73</v>
+      </c>
+      <c r="AV55">
+        <v>1.35</v>
+      </c>
+      <c r="AW55">
+        <v>3.08</v>
+      </c>
+      <c r="AX55">
+        <v>1.77</v>
+      </c>
+      <c r="AY55">
+        <v>6.9</v>
+      </c>
+      <c r="AZ55">
+        <v>2.45</v>
+      </c>
+      <c r="BA55">
+        <v>1.5</v>
+      </c>
+      <c r="BB55">
+        <v>1.85</v>
+      </c>
+      <c r="BC55">
+        <v>2.31</v>
+      </c>
+      <c r="BD55">
+        <v>3.4</v>
+      </c>
+      <c r="BE55">
+        <v>0</v>
+      </c>
+      <c r="BF55">
+        <v>3</v>
+      </c>
+      <c r="BG55">
+        <v>4</v>
+      </c>
+      <c r="BH55">
+        <v>2</v>
+      </c>
+      <c r="BI55">
+        <v>1</v>
+      </c>
+      <c r="BJ55">
+        <v>5</v>
+      </c>
+      <c r="BK55">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="153">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -400,6 +400,9 @@
     <t>['26']</t>
   </si>
   <si>
+    <t>['67']</t>
+  </si>
+  <si>
     <t>['47', '90+7']</t>
   </si>
   <si>
@@ -467,6 +470,9 @@
   </si>
   <si>
     <t>['17', '86']</t>
+  </si>
+  <si>
+    <t>['49', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -828,7 +834,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK60"/>
+  <dimension ref="A1:BK62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1072,7 +1078,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1159,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT2">
         <v>2</v>
@@ -1350,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT3">
         <v>0.25</v>
@@ -1836,7 +1842,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2027,7 +2033,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2218,7 +2224,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2308,7 +2314,7 @@
         <v>2.33</v>
       </c>
       <c r="AT8">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2600,7 +2606,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -3364,7 +3370,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3555,7 +3561,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -3937,7 +3943,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4128,7 +4134,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4218,7 +4224,7 @@
         <v>2.5</v>
       </c>
       <c r="AT18">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU18">
         <v>0.96</v>
@@ -4406,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT19">
         <v>0</v>
@@ -4892,7 +4898,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q22">
         <v>10</v>
@@ -5173,7 +5179,7 @@
         <v>1.25</v>
       </c>
       <c r="AT23">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU23">
         <v>1.34</v>
@@ -5847,7 +5853,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q27">
         <v>7</v>
@@ -6038,7 +6044,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6420,7 +6426,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6611,7 +6617,7 @@
         <v>94</v>
       </c>
       <c r="P31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6698,7 +6704,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT31">
         <v>1.5</v>
@@ -7184,7 +7190,7 @@
         <v>94</v>
       </c>
       <c r="P34" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q34">
         <v>1</v>
@@ -7566,7 +7572,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7653,7 +7659,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT36">
         <v>0.25</v>
@@ -8229,7 +8235,7 @@
         <v>0.75</v>
       </c>
       <c r="AT39">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU39">
         <v>1.25</v>
@@ -8330,7 +8336,7 @@
         <v>94</v>
       </c>
       <c r="P40" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q40">
         <v>10</v>
@@ -8420,7 +8426,7 @@
         <v>1.75</v>
       </c>
       <c r="AT40">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU40">
         <v>1.75</v>
@@ -8712,7 +8718,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -8799,7 +8805,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT42">
         <v>2</v>
@@ -8903,7 +8909,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9094,7 +9100,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -10049,7 +10055,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10431,7 +10437,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q51">
         <v>9</v>
@@ -10622,7 +10628,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11285,7 +11291,7 @@
         <v>2.25</v>
       </c>
       <c r="AT55">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU55">
         <v>1.73</v>
@@ -11959,7 +11965,7 @@
         <v>94</v>
       </c>
       <c r="P59" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12291,6 +12297,388 @@
         <v>9</v>
       </c>
       <c r="BK60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:63">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>5139138</v>
+      </c>
+      <c r="C61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45005.75</v>
+      </c>
+      <c r="F61">
+        <v>8</v>
+      </c>
+      <c r="G61" t="s">
+        <v>65</v>
+      </c>
+      <c r="H61" t="s">
+        <v>68</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>2</v>
+      </c>
+      <c r="N61">
+        <v>3</v>
+      </c>
+      <c r="O61" t="s">
+        <v>128</v>
+      </c>
+      <c r="P61" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q61">
+        <v>2</v>
+      </c>
+      <c r="R61">
+        <v>6</v>
+      </c>
+      <c r="S61">
+        <v>8</v>
+      </c>
+      <c r="T61">
+        <v>3.6</v>
+      </c>
+      <c r="U61">
+        <v>2.05</v>
+      </c>
+      <c r="V61">
+        <v>2.88</v>
+      </c>
+      <c r="W61">
+        <v>1.4</v>
+      </c>
+      <c r="X61">
+        <v>2.75</v>
+      </c>
+      <c r="Y61">
+        <v>2.75</v>
+      </c>
+      <c r="Z61">
+        <v>1.4</v>
+      </c>
+      <c r="AA61">
+        <v>7</v>
+      </c>
+      <c r="AB61">
+        <v>1.08</v>
+      </c>
+      <c r="AC61">
+        <v>3.15</v>
+      </c>
+      <c r="AD61">
+        <v>3.2</v>
+      </c>
+      <c r="AE61">
+        <v>2.03</v>
+      </c>
+      <c r="AF61">
+        <v>1.06</v>
+      </c>
+      <c r="AG61">
+        <v>8</v>
+      </c>
+      <c r="AH61">
+        <v>1.33</v>
+      </c>
+      <c r="AI61">
+        <v>3.25</v>
+      </c>
+      <c r="AJ61">
+        <v>2.16</v>
+      </c>
+      <c r="AK61">
+        <v>1.66</v>
+      </c>
+      <c r="AL61">
+        <v>1.8</v>
+      </c>
+      <c r="AM61">
+        <v>1.96</v>
+      </c>
+      <c r="AN61">
+        <v>1.57</v>
+      </c>
+      <c r="AO61">
+        <v>1.25</v>
+      </c>
+      <c r="AP61">
+        <v>1.28</v>
+      </c>
+      <c r="AQ61">
+        <v>0.33</v>
+      </c>
+      <c r="AR61">
+        <v>0.33</v>
+      </c>
+      <c r="AS61">
+        <v>0.25</v>
+      </c>
+      <c r="AT61">
+        <v>1</v>
+      </c>
+      <c r="AU61">
+        <v>1.62</v>
+      </c>
+      <c r="AV61">
+        <v>1.27</v>
+      </c>
+      <c r="AW61">
+        <v>2.89</v>
+      </c>
+      <c r="AX61">
+        <v>2.47</v>
+      </c>
+      <c r="AY61">
+        <v>7.2</v>
+      </c>
+      <c r="AZ61">
+        <v>1.74</v>
+      </c>
+      <c r="BA61">
+        <v>1.36</v>
+      </c>
+      <c r="BB61">
+        <v>1.72</v>
+      </c>
+      <c r="BC61">
+        <v>2</v>
+      </c>
+      <c r="BD61">
+        <v>2.53</v>
+      </c>
+      <c r="BE61">
+        <v>4.3</v>
+      </c>
+      <c r="BF61">
+        <v>3</v>
+      </c>
+      <c r="BG61">
+        <v>4</v>
+      </c>
+      <c r="BH61">
+        <v>2</v>
+      </c>
+      <c r="BI61">
+        <v>8</v>
+      </c>
+      <c r="BJ61">
+        <v>5</v>
+      </c>
+      <c r="BK61">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:63">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>5139135</v>
+      </c>
+      <c r="C62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45005.75347222222</v>
+      </c>
+      <c r="F62">
+        <v>8</v>
+      </c>
+      <c r="G62" t="s">
+        <v>66</v>
+      </c>
+      <c r="H62" t="s">
+        <v>78</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62" t="s">
+        <v>94</v>
+      </c>
+      <c r="P62" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q62">
+        <v>7</v>
+      </c>
+      <c r="R62">
+        <v>4</v>
+      </c>
+      <c r="S62">
+        <v>11</v>
+      </c>
+      <c r="T62">
+        <v>3.15</v>
+      </c>
+      <c r="U62">
+        <v>1.99</v>
+      </c>
+      <c r="V62">
+        <v>4.11</v>
+      </c>
+      <c r="W62">
+        <v>1.54</v>
+      </c>
+      <c r="X62">
+        <v>2.46</v>
+      </c>
+      <c r="Y62">
+        <v>3.32</v>
+      </c>
+      <c r="Z62">
+        <v>1.29</v>
+      </c>
+      <c r="AA62">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AB62">
+        <v>1.05</v>
+      </c>
+      <c r="AC62">
+        <v>2.16</v>
+      </c>
+      <c r="AD62">
+        <v>3.05</v>
+      </c>
+      <c r="AE62">
+        <v>3.05</v>
+      </c>
+      <c r="AF62">
+        <v>1.06</v>
+      </c>
+      <c r="AG62">
+        <v>6.75</v>
+      </c>
+      <c r="AH62">
+        <v>1.4</v>
+      </c>
+      <c r="AI62">
+        <v>2.64</v>
+      </c>
+      <c r="AJ62">
+        <v>2.48</v>
+      </c>
+      <c r="AK62">
+        <v>1.5</v>
+      </c>
+      <c r="AL62">
+        <v>2.05</v>
+      </c>
+      <c r="AM62">
+        <v>1.75</v>
+      </c>
+      <c r="AN62">
+        <v>1.32</v>
+      </c>
+      <c r="AO62">
+        <v>1.38</v>
+      </c>
+      <c r="AP62">
+        <v>1.6</v>
+      </c>
+      <c r="AQ62">
+        <v>3</v>
+      </c>
+      <c r="AR62">
+        <v>1.33</v>
+      </c>
+      <c r="AS62">
+        <v>2.5</v>
+      </c>
+      <c r="AT62">
+        <v>1.25</v>
+      </c>
+      <c r="AU62">
+        <v>1.26</v>
+      </c>
+      <c r="AV62">
+        <v>1.23</v>
+      </c>
+      <c r="AW62">
+        <v>2.49</v>
+      </c>
+      <c r="AX62">
+        <v>1.64</v>
+      </c>
+      <c r="AY62">
+        <v>6.9</v>
+      </c>
+      <c r="AZ62">
+        <v>2.75</v>
+      </c>
+      <c r="BA62">
+        <v>1.8</v>
+      </c>
+      <c r="BB62">
+        <v>2.17</v>
+      </c>
+      <c r="BC62">
+        <v>3</v>
+      </c>
+      <c r="BD62">
+        <v>4.3</v>
+      </c>
+      <c r="BE62">
+        <v>0</v>
+      </c>
+      <c r="BF62">
+        <v>5</v>
+      </c>
+      <c r="BG62">
+        <v>4</v>
+      </c>
+      <c r="BH62">
+        <v>13</v>
+      </c>
+      <c r="BI62">
+        <v>0</v>
+      </c>
+      <c r="BJ62">
+        <v>18</v>
+      </c>
+      <c r="BK62">
         <v>4</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="154">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -403,6 +403,9 @@
     <t>['67']</t>
   </si>
   <si>
+    <t>['36']</t>
+  </si>
+  <si>
     <t>['47', '90+7']</t>
   </si>
   <si>
@@ -430,9 +433,6 @@
     <t>['20']</t>
   </si>
   <si>
-    <t>['36']</t>
-  </si>
-  <si>
     <t>['53']</t>
   </si>
   <si>
@@ -473,6 +473,9 @@
   </si>
   <si>
     <t>['49', '90+4']</t>
+  </si>
+  <si>
+    <t>['23']</t>
   </si>
 </sst>
 </file>
@@ -834,7 +837,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK62"/>
+  <dimension ref="A1:BK63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1078,7 +1081,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1842,7 +1845,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -1929,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT6">
         <v>0.5</v>
@@ -2033,7 +2036,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2224,7 +2227,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2606,7 +2609,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -3370,7 +3373,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3460,7 +3463,7 @@
         <v>2.25</v>
       </c>
       <c r="AT14">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3561,7 +3564,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -3943,7 +3946,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4134,7 +4137,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4898,7 +4901,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="Q22">
         <v>10</v>
@@ -5370,7 +5373,7 @@
         <v>1.75</v>
       </c>
       <c r="AT24">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU24">
         <v>1.43</v>
@@ -6513,7 +6516,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT30">
         <v>1.5</v>
@@ -7572,7 +7575,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8808,7 +8811,7 @@
         <v>0.25</v>
       </c>
       <c r="AT42">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU42">
         <v>1.66</v>
@@ -9187,7 +9190,7 @@
         <v>1.33</v>
       </c>
       <c r="AS44">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT44">
         <v>2</v>
@@ -12680,6 +12683,197 @@
       </c>
       <c r="BK62">
         <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:63">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>5139139</v>
+      </c>
+      <c r="C63" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45006.8125</v>
+      </c>
+      <c r="F63">
+        <v>8</v>
+      </c>
+      <c r="G63" t="s">
+        <v>69</v>
+      </c>
+      <c r="H63" t="s">
+        <v>67</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>2</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>2</v>
+      </c>
+      <c r="O63" t="s">
+        <v>129</v>
+      </c>
+      <c r="P63" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q63">
+        <v>6</v>
+      </c>
+      <c r="R63">
+        <v>6</v>
+      </c>
+      <c r="S63">
+        <v>12</v>
+      </c>
+      <c r="T63">
+        <v>3.4</v>
+      </c>
+      <c r="U63">
+        <v>2.25</v>
+      </c>
+      <c r="V63">
+        <v>2.75</v>
+      </c>
+      <c r="W63">
+        <v>1.33</v>
+      </c>
+      <c r="X63">
+        <v>3.04</v>
+      </c>
+      <c r="Y63">
+        <v>2.4</v>
+      </c>
+      <c r="Z63">
+        <v>1.5</v>
+      </c>
+      <c r="AA63">
+        <v>5.5</v>
+      </c>
+      <c r="AB63">
+        <v>1.08</v>
+      </c>
+      <c r="AC63">
+        <v>2.25</v>
+      </c>
+      <c r="AD63">
+        <v>4.71</v>
+      </c>
+      <c r="AE63">
+        <v>2.21</v>
+      </c>
+      <c r="AF63">
+        <v>1</v>
+      </c>
+      <c r="AG63">
+        <v>15</v>
+      </c>
+      <c r="AH63">
+        <v>1.2</v>
+      </c>
+      <c r="AI63">
+        <v>4.05</v>
+      </c>
+      <c r="AJ63">
+        <v>1.6</v>
+      </c>
+      <c r="AK63">
+        <v>2.1</v>
+      </c>
+      <c r="AL63">
+        <v>1.67</v>
+      </c>
+      <c r="AM63">
+        <v>2.1</v>
+      </c>
+      <c r="AN63">
+        <v>1.62</v>
+      </c>
+      <c r="AO63">
+        <v>1.27</v>
+      </c>
+      <c r="AP63">
+        <v>1.37</v>
+      </c>
+      <c r="AQ63">
+        <v>1.33</v>
+      </c>
+      <c r="AR63">
+        <v>2</v>
+      </c>
+      <c r="AS63">
+        <v>1.25</v>
+      </c>
+      <c r="AT63">
+        <v>1.75</v>
+      </c>
+      <c r="AU63">
+        <v>1.38</v>
+      </c>
+      <c r="AV63">
+        <v>1.52</v>
+      </c>
+      <c r="AW63">
+        <v>2.9</v>
+      </c>
+      <c r="AX63">
+        <v>2.12</v>
+      </c>
+      <c r="AY63">
+        <v>6.7</v>
+      </c>
+      <c r="AZ63">
+        <v>2.01</v>
+      </c>
+      <c r="BA63">
+        <v>1.67</v>
+      </c>
+      <c r="BB63">
+        <v>2.14</v>
+      </c>
+      <c r="BC63">
+        <v>2.47</v>
+      </c>
+      <c r="BD63">
+        <v>4.25</v>
+      </c>
+      <c r="BE63">
+        <v>5.5</v>
+      </c>
+      <c r="BF63">
+        <v>7</v>
+      </c>
+      <c r="BG63">
+        <v>6</v>
+      </c>
+      <c r="BH63">
+        <v>3</v>
+      </c>
+      <c r="BI63">
+        <v>8</v>
+      </c>
+      <c r="BJ63">
+        <v>10</v>
+      </c>
+      <c r="BK63">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="158">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -406,6 +406,15 @@
     <t>['36']</t>
   </si>
   <si>
+    <t>['2', '50', '69']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['3']</t>
+  </si>
+  <si>
     <t>['47', '90+7']</t>
   </si>
   <si>
@@ -463,9 +472,6 @@
     <t>['27', '55']</t>
   </si>
   <si>
-    <t>['81']</t>
-  </si>
-  <si>
     <t>['27', '35']</t>
   </si>
   <si>
@@ -476,6 +482,12 @@
   </si>
   <si>
     <t>['23']</t>
+  </si>
+  <si>
+    <t>['11', '90+5']</t>
+  </si>
+  <si>
+    <t>['85']</t>
   </si>
 </sst>
 </file>
@@ -837,7 +849,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK63"/>
+  <dimension ref="A1:BK68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1081,7 +1093,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1362,7 +1374,7 @@
         <v>2.5</v>
       </c>
       <c r="AT3">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1550,10 +1562,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1744,7 +1756,7 @@
         <v>3</v>
       </c>
       <c r="AT5">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1845,7 +1857,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2036,7 +2048,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2123,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT7">
         <v>0.5</v>
@@ -2227,7 +2239,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2508,7 +2520,7 @@
         <v>1.75</v>
       </c>
       <c r="AT9">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2609,7 +2621,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -3373,7 +3385,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3564,7 +3576,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -3651,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT15">
         <v>1.5</v>
@@ -3845,7 +3857,7 @@
         <v>2</v>
       </c>
       <c r="AT16">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -3946,7 +3958,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4033,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT17">
         <v>0.25</v>
@@ -4137,7 +4149,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4224,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT18">
         <v>1.25</v>
@@ -4418,7 +4430,7 @@
         <v>2.5</v>
       </c>
       <c r="AT19">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AU19">
         <v>0.68</v>
@@ -4988,10 +5000,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT22">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU22">
         <v>1.77</v>
@@ -5179,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT23">
         <v>1.25</v>
@@ -5561,10 +5573,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT25">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU25">
         <v>2.14</v>
@@ -5856,7 +5868,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q27">
         <v>7</v>
@@ -5946,7 +5958,7 @@
         <v>2.25</v>
       </c>
       <c r="AT27">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU27">
         <v>1.9</v>
@@ -6047,7 +6059,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6328,7 +6340,7 @@
         <v>2.33</v>
       </c>
       <c r="AT29">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU29">
         <v>1.64</v>
@@ -6429,7 +6441,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6620,7 +6632,7 @@
         <v>94</v>
       </c>
       <c r="P31" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6901,7 +6913,7 @@
         <v>2</v>
       </c>
       <c r="AT32">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AU32">
         <v>1.62</v>
@@ -7089,7 +7101,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT33">
         <v>0</v>
@@ -7193,7 +7205,7 @@
         <v>94</v>
       </c>
       <c r="P34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q34">
         <v>1</v>
@@ -7280,7 +7292,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT34">
         <v>2</v>
@@ -7471,7 +7483,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT35">
         <v>0.5</v>
@@ -7575,7 +7587,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7856,7 +7868,7 @@
         <v>2.25</v>
       </c>
       <c r="AT37">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AU37">
         <v>1.07</v>
@@ -8047,7 +8059,7 @@
         <v>2</v>
       </c>
       <c r="AT38">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU38">
         <v>0.32</v>
@@ -8235,7 +8247,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT39">
         <v>1</v>
@@ -8339,7 +8351,7 @@
         <v>94</v>
       </c>
       <c r="P40" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q40">
         <v>10</v>
@@ -8721,7 +8733,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -8912,7 +8924,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9103,7 +9115,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -9766,7 +9778,7 @@
         <v>1.75</v>
       </c>
       <c r="AT47">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU47">
         <v>1.42</v>
@@ -9954,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT48">
         <v>0</v>
@@ -10058,7 +10070,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10145,7 +10157,7 @@
         <v>1.67</v>
       </c>
       <c r="AS49">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT49">
         <v>1.5</v>
@@ -10440,7 +10452,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="Q51">
         <v>9</v>
@@ -10631,7 +10643,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -10718,10 +10730,10 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AT52">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU52">
         <v>1.29</v>
@@ -10912,7 +10924,7 @@
         <v>2.25</v>
       </c>
       <c r="AT53">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AU53">
         <v>1.6</v>
@@ -11103,7 +11115,7 @@
         <v>2.33</v>
       </c>
       <c r="AT54">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU54">
         <v>1.08</v>
@@ -11291,7 +11303,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT55">
         <v>1</v>
@@ -11968,7 +11980,7 @@
         <v>94</v>
       </c>
       <c r="P59" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12249,7 +12261,7 @@
         <v>2</v>
       </c>
       <c r="AT60">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU60">
         <v>1.49</v>
@@ -12350,7 +12362,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -12732,7 +12744,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q63">
         <v>6</v>
@@ -12874,6 +12886,961 @@
       </c>
       <c r="BK63">
         <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:63">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>5139146</v>
+      </c>
+      <c r="C64" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45009.75</v>
+      </c>
+      <c r="F64">
+        <v>9</v>
+      </c>
+      <c r="G64" t="s">
+        <v>70</v>
+      </c>
+      <c r="H64" t="s">
+        <v>73</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>2</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+      <c r="O64" t="s">
+        <v>94</v>
+      </c>
+      <c r="P64" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q64">
+        <v>3</v>
+      </c>
+      <c r="R64">
+        <v>4</v>
+      </c>
+      <c r="S64">
+        <v>7</v>
+      </c>
+      <c r="T64">
+        <v>2.32</v>
+      </c>
+      <c r="U64">
+        <v>2.04</v>
+      </c>
+      <c r="V64">
+        <v>5.1</v>
+      </c>
+      <c r="W64">
+        <v>1.44</v>
+      </c>
+      <c r="X64">
+        <v>2.58</v>
+      </c>
+      <c r="Y64">
+        <v>3.1</v>
+      </c>
+      <c r="Z64">
+        <v>1.32</v>
+      </c>
+      <c r="AA64">
+        <v>7.5</v>
+      </c>
+      <c r="AB64">
+        <v>1.07</v>
+      </c>
+      <c r="AC64">
+        <v>1.75</v>
+      </c>
+      <c r="AD64">
+        <v>3.2</v>
+      </c>
+      <c r="AE64">
+        <v>4.6</v>
+      </c>
+      <c r="AF64">
+        <v>1.04</v>
+      </c>
+      <c r="AG64">
+        <v>7.8</v>
+      </c>
+      <c r="AH64">
+        <v>1.35</v>
+      </c>
+      <c r="AI64">
+        <v>2.84</v>
+      </c>
+      <c r="AJ64">
+        <v>2.38</v>
+      </c>
+      <c r="AK64">
+        <v>1.53</v>
+      </c>
+      <c r="AL64">
+        <v>1.98</v>
+      </c>
+      <c r="AM64">
+        <v>1.7</v>
+      </c>
+      <c r="AN64">
+        <v>1.16</v>
+      </c>
+      <c r="AO64">
+        <v>1.26</v>
+      </c>
+      <c r="AP64">
+        <v>1.96</v>
+      </c>
+      <c r="AQ64">
+        <v>0.75</v>
+      </c>
+      <c r="AR64">
+        <v>0.33</v>
+      </c>
+      <c r="AS64">
+        <v>0.6</v>
+      </c>
+      <c r="AT64">
+        <v>1</v>
+      </c>
+      <c r="AU64">
+        <v>1.31</v>
+      </c>
+      <c r="AV64">
+        <v>1.09</v>
+      </c>
+      <c r="AW64">
+        <v>2.4</v>
+      </c>
+      <c r="AX64">
+        <v>1.47</v>
+      </c>
+      <c r="AY64">
+        <v>9.4</v>
+      </c>
+      <c r="AZ64">
+        <v>3.02</v>
+      </c>
+      <c r="BA64">
+        <v>1.59</v>
+      </c>
+      <c r="BB64">
+        <v>2</v>
+      </c>
+      <c r="BC64">
+        <v>2.53</v>
+      </c>
+      <c r="BD64">
+        <v>0</v>
+      </c>
+      <c r="BE64">
+        <v>0</v>
+      </c>
+      <c r="BF64">
+        <v>4</v>
+      </c>
+      <c r="BG64">
+        <v>5</v>
+      </c>
+      <c r="BH64">
+        <v>3</v>
+      </c>
+      <c r="BI64">
+        <v>3</v>
+      </c>
+      <c r="BJ64">
+        <v>7</v>
+      </c>
+      <c r="BK64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:63">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>5139148</v>
+      </c>
+      <c r="C65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" t="s">
+        <v>64</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45009.83333333334</v>
+      </c>
+      <c r="F65">
+        <v>9</v>
+      </c>
+      <c r="G65" t="s">
+        <v>68</v>
+      </c>
+      <c r="H65" t="s">
+        <v>79</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>3</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>3</v>
+      </c>
+      <c r="O65" t="s">
+        <v>130</v>
+      </c>
+      <c r="P65" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q65">
+        <v>5</v>
+      </c>
+      <c r="R65">
+        <v>3</v>
+      </c>
+      <c r="S65">
+        <v>8</v>
+      </c>
+      <c r="T65">
+        <v>2.4</v>
+      </c>
+      <c r="U65">
+        <v>2</v>
+      </c>
+      <c r="V65">
+        <v>5</v>
+      </c>
+      <c r="W65">
+        <v>1.45</v>
+      </c>
+      <c r="X65">
+        <v>2.55</v>
+      </c>
+      <c r="Y65">
+        <v>3.05</v>
+      </c>
+      <c r="Z65">
+        <v>1.32</v>
+      </c>
+      <c r="AA65">
+        <v>7.25</v>
+      </c>
+      <c r="AB65">
+        <v>1.06</v>
+      </c>
+      <c r="AC65">
+        <v>1.95</v>
+      </c>
+      <c r="AD65">
+        <v>3.1</v>
+      </c>
+      <c r="AE65">
+        <v>3.9</v>
+      </c>
+      <c r="AF65">
+        <v>1.06</v>
+      </c>
+      <c r="AG65">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="AH65">
+        <v>1.36</v>
+      </c>
+      <c r="AI65">
+        <v>2.92</v>
+      </c>
+      <c r="AJ65">
+        <v>2.38</v>
+      </c>
+      <c r="AK65">
+        <v>1.53</v>
+      </c>
+      <c r="AL65">
+        <v>2</v>
+      </c>
+      <c r="AM65">
+        <v>1.72</v>
+      </c>
+      <c r="AN65">
+        <v>1.19</v>
+      </c>
+      <c r="AO65">
+        <v>1.25</v>
+      </c>
+      <c r="AP65">
+        <v>1.95</v>
+      </c>
+      <c r="AQ65">
+        <v>3</v>
+      </c>
+      <c r="AR65">
+        <v>0.33</v>
+      </c>
+      <c r="AS65">
+        <v>3</v>
+      </c>
+      <c r="AT65">
+        <v>0.25</v>
+      </c>
+      <c r="AU65">
+        <v>1.45</v>
+      </c>
+      <c r="AV65">
+        <v>1.45</v>
+      </c>
+      <c r="AW65">
+        <v>2.9</v>
+      </c>
+      <c r="AX65">
+        <v>1.46</v>
+      </c>
+      <c r="AY65">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ65">
+        <v>3.02</v>
+      </c>
+      <c r="BA65">
+        <v>0</v>
+      </c>
+      <c r="BB65">
+        <v>1.49</v>
+      </c>
+      <c r="BC65">
+        <v>1.82</v>
+      </c>
+      <c r="BD65">
+        <v>2.25</v>
+      </c>
+      <c r="BE65">
+        <v>0</v>
+      </c>
+      <c r="BF65">
+        <v>5</v>
+      </c>
+      <c r="BG65">
+        <v>2</v>
+      </c>
+      <c r="BH65">
+        <v>4</v>
+      </c>
+      <c r="BI65">
+        <v>4</v>
+      </c>
+      <c r="BJ65">
+        <v>9</v>
+      </c>
+      <c r="BK65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:63">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>5139147</v>
+      </c>
+      <c r="C66" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45009.83680555555</v>
+      </c>
+      <c r="F66">
+        <v>9</v>
+      </c>
+      <c r="G66" t="s">
+        <v>78</v>
+      </c>
+      <c r="H66" t="s">
+        <v>74</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>2</v>
+      </c>
+      <c r="O66" t="s">
+        <v>131</v>
+      </c>
+      <c r="P66" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q66">
+        <v>9</v>
+      </c>
+      <c r="R66">
+        <v>2</v>
+      </c>
+      <c r="S66">
+        <v>11</v>
+      </c>
+      <c r="T66">
+        <v>2.06</v>
+      </c>
+      <c r="U66">
+        <v>2.07</v>
+      </c>
+      <c r="V66">
+        <v>6.8</v>
+      </c>
+      <c r="W66">
+        <v>1.48</v>
+      </c>
+      <c r="X66">
+        <v>2.64</v>
+      </c>
+      <c r="Y66">
+        <v>3.15</v>
+      </c>
+      <c r="Z66">
+        <v>1.31</v>
+      </c>
+      <c r="AA66">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB66">
+        <v>1.04</v>
+      </c>
+      <c r="AC66">
+        <v>1.45</v>
+      </c>
+      <c r="AD66">
+        <v>3.8</v>
+      </c>
+      <c r="AE66">
+        <v>7</v>
+      </c>
+      <c r="AF66">
+        <v>1.04</v>
+      </c>
+      <c r="AG66">
+        <v>7.5</v>
+      </c>
+      <c r="AH66">
+        <v>1.37</v>
+      </c>
+      <c r="AI66">
+        <v>2.75</v>
+      </c>
+      <c r="AJ66">
+        <v>2.2</v>
+      </c>
+      <c r="AK66">
+        <v>1.62</v>
+      </c>
+      <c r="AL66">
+        <v>2.23</v>
+      </c>
+      <c r="AM66">
+        <v>1.55</v>
+      </c>
+      <c r="AN66">
+        <v>1.08</v>
+      </c>
+      <c r="AO66">
+        <v>1.22</v>
+      </c>
+      <c r="AP66">
+        <v>2.39</v>
+      </c>
+      <c r="AQ66">
+        <v>2.25</v>
+      </c>
+      <c r="AR66">
+        <v>0.25</v>
+      </c>
+      <c r="AS66">
+        <v>2</v>
+      </c>
+      <c r="AT66">
+        <v>0.4</v>
+      </c>
+      <c r="AU66">
+        <v>1.54</v>
+      </c>
+      <c r="AV66">
+        <v>0.82</v>
+      </c>
+      <c r="AW66">
+        <v>2.36</v>
+      </c>
+      <c r="AX66">
+        <v>1.26</v>
+      </c>
+      <c r="AY66">
+        <v>10.25</v>
+      </c>
+      <c r="AZ66">
+        <v>4.4</v>
+      </c>
+      <c r="BA66">
+        <v>1.71</v>
+      </c>
+      <c r="BB66">
+        <v>2.18</v>
+      </c>
+      <c r="BC66">
+        <v>2.52</v>
+      </c>
+      <c r="BD66">
+        <v>0</v>
+      </c>
+      <c r="BE66">
+        <v>0</v>
+      </c>
+      <c r="BF66">
+        <v>7</v>
+      </c>
+      <c r="BG66">
+        <v>4</v>
+      </c>
+      <c r="BH66">
+        <v>6</v>
+      </c>
+      <c r="BI66">
+        <v>2</v>
+      </c>
+      <c r="BJ66">
+        <v>13</v>
+      </c>
+      <c r="BK66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:63">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>5139141</v>
+      </c>
+      <c r="C67" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" t="s">
+        <v>64</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45010.70833333334</v>
+      </c>
+      <c r="F67">
+        <v>9</v>
+      </c>
+      <c r="G67" t="s">
+        <v>80</v>
+      </c>
+      <c r="H67" t="s">
+        <v>76</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67" t="s">
+        <v>94</v>
+      </c>
+      <c r="P67" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q67">
+        <v>5</v>
+      </c>
+      <c r="R67">
+        <v>2</v>
+      </c>
+      <c r="S67">
+        <v>7</v>
+      </c>
+      <c r="T67">
+        <v>2.97</v>
+      </c>
+      <c r="U67">
+        <v>1.89</v>
+      </c>
+      <c r="V67">
+        <v>3.96</v>
+      </c>
+      <c r="W67">
+        <v>1.53</v>
+      </c>
+      <c r="X67">
+        <v>2.34</v>
+      </c>
+      <c r="Y67">
+        <v>3.48</v>
+      </c>
+      <c r="Z67">
+        <v>1.26</v>
+      </c>
+      <c r="AA67">
+        <v>9.6</v>
+      </c>
+      <c r="AB67">
+        <v>1.02</v>
+      </c>
+      <c r="AC67">
+        <v>2.3</v>
+      </c>
+      <c r="AD67">
+        <v>2.8</v>
+      </c>
+      <c r="AE67">
+        <v>3.1</v>
+      </c>
+      <c r="AF67">
+        <v>1.07</v>
+      </c>
+      <c r="AG67">
+        <v>6.5</v>
+      </c>
+      <c r="AH67">
+        <v>1.5</v>
+      </c>
+      <c r="AI67">
+        <v>2.35</v>
+      </c>
+      <c r="AJ67">
+        <v>2.32</v>
+      </c>
+      <c r="AK67">
+        <v>1.49</v>
+      </c>
+      <c r="AL67">
+        <v>2.05</v>
+      </c>
+      <c r="AM67">
+        <v>1.65</v>
+      </c>
+      <c r="AN67">
+        <v>1.31</v>
+      </c>
+      <c r="AO67">
+        <v>1.33</v>
+      </c>
+      <c r="AP67">
+        <v>1.55</v>
+      </c>
+      <c r="AQ67">
+        <v>1.25</v>
+      </c>
+      <c r="AR67">
+        <v>0</v>
+      </c>
+      <c r="AS67">
+        <v>1</v>
+      </c>
+      <c r="AT67">
+        <v>0.6</v>
+      </c>
+      <c r="AU67">
+        <v>1.4</v>
+      </c>
+      <c r="AV67">
+        <v>1.01</v>
+      </c>
+      <c r="AW67">
+        <v>2.41</v>
+      </c>
+      <c r="AX67">
+        <v>2.02</v>
+      </c>
+      <c r="AY67">
+        <v>6.35</v>
+      </c>
+      <c r="AZ67">
+        <v>2.15</v>
+      </c>
+      <c r="BA67">
+        <v>1.55</v>
+      </c>
+      <c r="BB67">
+        <v>1.93</v>
+      </c>
+      <c r="BC67">
+        <v>2.44</v>
+      </c>
+      <c r="BD67">
+        <v>0</v>
+      </c>
+      <c r="BE67">
+        <v>0</v>
+      </c>
+      <c r="BF67">
+        <v>0</v>
+      </c>
+      <c r="BG67">
+        <v>2</v>
+      </c>
+      <c r="BH67">
+        <v>0</v>
+      </c>
+      <c r="BI67">
+        <v>0</v>
+      </c>
+      <c r="BJ67">
+        <v>0</v>
+      </c>
+      <c r="BK67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:63">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>5139142</v>
+      </c>
+      <c r="C68" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45010.75</v>
+      </c>
+      <c r="F68">
+        <v>9</v>
+      </c>
+      <c r="G68" t="s">
+        <v>67</v>
+      </c>
+      <c r="H68" t="s">
+        <v>77</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>2</v>
+      </c>
+      <c r="O68" t="s">
+        <v>132</v>
+      </c>
+      <c r="P68" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q68">
+        <v>5</v>
+      </c>
+      <c r="R68">
+        <v>5</v>
+      </c>
+      <c r="S68">
+        <v>10</v>
+      </c>
+      <c r="T68">
+        <v>2.63</v>
+      </c>
+      <c r="U68">
+        <v>2.1</v>
+      </c>
+      <c r="V68">
+        <v>3.75</v>
+      </c>
+      <c r="W68">
+        <v>1.45</v>
+      </c>
+      <c r="X68">
+        <v>2.6</v>
+      </c>
+      <c r="Y68">
+        <v>2.95</v>
+      </c>
+      <c r="Z68">
+        <v>1.35</v>
+      </c>
+      <c r="AA68">
+        <v>7</v>
+      </c>
+      <c r="AB68">
+        <v>1.07</v>
+      </c>
+      <c r="AC68">
+        <v>2.1</v>
+      </c>
+      <c r="AD68">
+        <v>3.1</v>
+      </c>
+      <c r="AE68">
+        <v>3.25</v>
+      </c>
+      <c r="AF68">
+        <v>1.05</v>
+      </c>
+      <c r="AG68">
+        <v>10.25</v>
+      </c>
+      <c r="AH68">
+        <v>1.33</v>
+      </c>
+      <c r="AI68">
+        <v>3</v>
+      </c>
+      <c r="AJ68">
+        <v>2</v>
+      </c>
+      <c r="AK68">
+        <v>1.8</v>
+      </c>
+      <c r="AL68">
+        <v>1.85</v>
+      </c>
+      <c r="AM68">
+        <v>1.83</v>
+      </c>
+      <c r="AN68">
+        <v>1.31</v>
+      </c>
+      <c r="AO68">
+        <v>1.29</v>
+      </c>
+      <c r="AP68">
+        <v>1.71</v>
+      </c>
+      <c r="AQ68">
+        <v>2.5</v>
+      </c>
+      <c r="AR68">
+        <v>1.25</v>
+      </c>
+      <c r="AS68">
+        <v>2.2</v>
+      </c>
+      <c r="AT68">
+        <v>1.2</v>
+      </c>
+      <c r="AU68">
+        <v>1.76</v>
+      </c>
+      <c r="AV68">
+        <v>0.89</v>
+      </c>
+      <c r="AW68">
+        <v>2.65</v>
+      </c>
+      <c r="AX68">
+        <v>1.76</v>
+      </c>
+      <c r="AY68">
+        <v>6.4</v>
+      </c>
+      <c r="AZ68">
+        <v>2.54</v>
+      </c>
+      <c r="BA68">
+        <v>1.52</v>
+      </c>
+      <c r="BB68">
+        <v>1.88</v>
+      </c>
+      <c r="BC68">
+        <v>2.36</v>
+      </c>
+      <c r="BD68">
+        <v>0</v>
+      </c>
+      <c r="BE68">
+        <v>0</v>
+      </c>
+      <c r="BF68">
+        <v>5</v>
+      </c>
+      <c r="BG68">
+        <v>6</v>
+      </c>
+      <c r="BH68">
+        <v>7</v>
+      </c>
+      <c r="BI68">
+        <v>2</v>
+      </c>
+      <c r="BJ68">
+        <v>12</v>
+      </c>
+      <c r="BK68">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="162">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -415,6 +415,12 @@
     <t>['3']</t>
   </si>
   <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['39', '75']</t>
+  </si>
+  <si>
     <t>['47', '90+7']</t>
   </si>
   <si>
@@ -488,6 +494,12 @@
   </si>
   <si>
     <t>['85']</t>
+  </si>
+  <si>
+    <t>['22', '25', '90']</t>
+  </si>
+  <si>
+    <t>['46', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -849,7 +861,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK68"/>
+  <dimension ref="A1:BK71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1093,7 +1105,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1857,7 +1869,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2048,7 +2060,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2239,7 +2251,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2326,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT8">
         <v>1</v>
@@ -2517,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT9">
         <v>0.25</v>
@@ -2621,7 +2633,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2711,7 +2723,7 @@
         <v>2</v>
       </c>
       <c r="AT10">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2902,7 +2914,7 @@
         <v>2.25</v>
       </c>
       <c r="AT11">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3090,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT12">
         <v>0</v>
@@ -3284,7 +3296,7 @@
         <v>1.75</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3385,7 +3397,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3576,7 +3588,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -3958,7 +3970,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4048,7 +4060,7 @@
         <v>1</v>
       </c>
       <c r="AT17">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4149,7 +4161,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4618,7 +4630,7 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT20">
         <v>2</v>
@@ -5868,7 +5880,7 @@
         <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q27">
         <v>7</v>
@@ -6059,7 +6071,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6146,7 +6158,7 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT28">
         <v>0.5</v>
@@ -6337,7 +6349,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT29">
         <v>1</v>
@@ -6441,7 +6453,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6632,7 +6644,7 @@
         <v>94</v>
       </c>
       <c r="P31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6722,7 +6734,7 @@
         <v>0.25</v>
       </c>
       <c r="AT31">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU31">
         <v>1.7</v>
@@ -7104,7 +7116,7 @@
         <v>2</v>
       </c>
       <c r="AT33">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AU33">
         <v>1.87</v>
@@ -7205,7 +7217,7 @@
         <v>94</v>
       </c>
       <c r="P34" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q34">
         <v>1</v>
@@ -7587,7 +7599,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7677,7 +7689,7 @@
         <v>2.5</v>
       </c>
       <c r="AT36">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU36">
         <v>1.09</v>
@@ -8351,7 +8363,7 @@
         <v>94</v>
       </c>
       <c r="P40" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q40">
         <v>10</v>
@@ -8438,7 +8450,7 @@
         <v>0.5</v>
       </c>
       <c r="AS40">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT40">
         <v>1.25</v>
@@ -8733,7 +8745,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -8924,7 +8936,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9014,7 +9026,7 @@
         <v>2</v>
       </c>
       <c r="AT43">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU43">
         <v>1.34</v>
@@ -9115,7 +9127,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -9969,7 +9981,7 @@
         <v>1</v>
       </c>
       <c r="AT48">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AU48">
         <v>1.18</v>
@@ -10070,7 +10082,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10160,7 +10172,7 @@
         <v>2.2</v>
       </c>
       <c r="AT49">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU49">
         <v>1.57</v>
@@ -10351,7 +10363,7 @@
         <v>2</v>
       </c>
       <c r="AT50">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU50">
         <v>0.67</v>
@@ -10539,7 +10551,7 @@
         <v>0.33</v>
       </c>
       <c r="AS51">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT51">
         <v>0.5</v>
@@ -10643,7 +10655,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11112,7 +11124,7 @@
         <v>0</v>
       </c>
       <c r="AS54">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT54">
         <v>0.4</v>
@@ -11494,7 +11506,7 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT56">
         <v>0</v>
@@ -11980,7 +11992,7 @@
         <v>94</v>
       </c>
       <c r="P59" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12362,7 +12374,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -12744,7 +12756,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q63">
         <v>6</v>
@@ -12935,7 +12947,7 @@
         <v>94</v>
       </c>
       <c r="P64" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13317,7 +13329,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q66">
         <v>9</v>
@@ -13699,7 +13711,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -13841,6 +13853,579 @@
       </c>
       <c r="BK68">
         <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:63">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>5139144</v>
+      </c>
+      <c r="C69" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" t="s">
+        <v>64</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45011.70833333334</v>
+      </c>
+      <c r="F69">
+        <v>9</v>
+      </c>
+      <c r="G69" t="s">
+        <v>71</v>
+      </c>
+      <c r="H69" t="s">
+        <v>65</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>2</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>3</v>
+      </c>
+      <c r="N69">
+        <v>3</v>
+      </c>
+      <c r="O69" t="s">
+        <v>94</v>
+      </c>
+      <c r="P69" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q69">
+        <v>12</v>
+      </c>
+      <c r="R69">
+        <v>1</v>
+      </c>
+      <c r="S69">
+        <v>13</v>
+      </c>
+      <c r="T69">
+        <v>2.06</v>
+      </c>
+      <c r="U69">
+        <v>2.18</v>
+      </c>
+      <c r="V69">
+        <v>5.75</v>
+      </c>
+      <c r="W69">
+        <v>1.39</v>
+      </c>
+      <c r="X69">
+        <v>2.77</v>
+      </c>
+      <c r="Y69">
+        <v>2.81</v>
+      </c>
+      <c r="Z69">
+        <v>1.38</v>
+      </c>
+      <c r="AA69">
+        <v>6.8</v>
+      </c>
+      <c r="AB69">
+        <v>1.07</v>
+      </c>
+      <c r="AC69">
+        <v>1.48</v>
+      </c>
+      <c r="AD69">
+        <v>3.85</v>
+      </c>
+      <c r="AE69">
+        <v>5.3</v>
+      </c>
+      <c r="AF69">
+        <v>1.02</v>
+      </c>
+      <c r="AG69">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH69">
+        <v>1.28</v>
+      </c>
+      <c r="AI69">
+        <v>3.2</v>
+      </c>
+      <c r="AJ69">
+        <v>1.98</v>
+      </c>
+      <c r="AK69">
+        <v>1.82</v>
+      </c>
+      <c r="AL69">
+        <v>1.98</v>
+      </c>
+      <c r="AM69">
+        <v>1.7</v>
+      </c>
+      <c r="AN69">
+        <v>1.09</v>
+      </c>
+      <c r="AO69">
+        <v>1.21</v>
+      </c>
+      <c r="AP69">
+        <v>2.38</v>
+      </c>
+      <c r="AQ69">
+        <v>2.33</v>
+      </c>
+      <c r="AR69">
+        <v>0</v>
+      </c>
+      <c r="AS69">
+        <v>1.75</v>
+      </c>
+      <c r="AT69">
+        <v>0.75</v>
+      </c>
+      <c r="AU69">
+        <v>1.17</v>
+      </c>
+      <c r="AV69">
+        <v>0.77</v>
+      </c>
+      <c r="AW69">
+        <v>1.94</v>
+      </c>
+      <c r="AX69">
+        <v>0</v>
+      </c>
+      <c r="AY69">
+        <v>0</v>
+      </c>
+      <c r="AZ69">
+        <v>0</v>
+      </c>
+      <c r="BA69">
+        <v>0</v>
+      </c>
+      <c r="BB69">
+        <v>1.58</v>
+      </c>
+      <c r="BC69">
+        <v>1.93</v>
+      </c>
+      <c r="BD69">
+        <v>2.44</v>
+      </c>
+      <c r="BE69">
+        <v>0</v>
+      </c>
+      <c r="BF69">
+        <v>8</v>
+      </c>
+      <c r="BG69">
+        <v>5</v>
+      </c>
+      <c r="BH69">
+        <v>22</v>
+      </c>
+      <c r="BI69">
+        <v>9</v>
+      </c>
+      <c r="BJ69">
+        <v>30</v>
+      </c>
+      <c r="BK69">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:63">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>5139145</v>
+      </c>
+      <c r="C70" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70" t="s">
+        <v>64</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45011.70833333334</v>
+      </c>
+      <c r="F70">
+        <v>9</v>
+      </c>
+      <c r="G70" t="s">
+        <v>72</v>
+      </c>
+      <c r="H70" t="s">
+        <v>66</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70" t="s">
+        <v>133</v>
+      </c>
+      <c r="P70" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <v>2</v>
+      </c>
+      <c r="S70">
+        <v>3</v>
+      </c>
+      <c r="T70">
+        <v>3.22</v>
+      </c>
+      <c r="U70">
+        <v>2</v>
+      </c>
+      <c r="V70">
+        <v>3.99</v>
+      </c>
+      <c r="W70">
+        <v>1.53</v>
+      </c>
+      <c r="X70">
+        <v>2.47</v>
+      </c>
+      <c r="Y70">
+        <v>3.42</v>
+      </c>
+      <c r="Z70">
+        <v>1.27</v>
+      </c>
+      <c r="AA70">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AB70">
+        <v>1.03</v>
+      </c>
+      <c r="AC70">
+        <v>2.27</v>
+      </c>
+      <c r="AD70">
+        <v>2.95</v>
+      </c>
+      <c r="AE70">
+        <v>2.94</v>
+      </c>
+      <c r="AF70">
+        <v>1.06</v>
+      </c>
+      <c r="AG70">
+        <v>6.5</v>
+      </c>
+      <c r="AH70">
+        <v>1.43</v>
+      </c>
+      <c r="AI70">
+        <v>2.54</v>
+      </c>
+      <c r="AJ70">
+        <v>2.48</v>
+      </c>
+      <c r="AK70">
+        <v>1.5</v>
+      </c>
+      <c r="AL70">
+        <v>1.98</v>
+      </c>
+      <c r="AM70">
+        <v>1.7</v>
+      </c>
+      <c r="AN70">
+        <v>1.31</v>
+      </c>
+      <c r="AO70">
+        <v>1.33</v>
+      </c>
+      <c r="AP70">
+        <v>1.54</v>
+      </c>
+      <c r="AQ70">
+        <v>1.75</v>
+      </c>
+      <c r="AR70">
+        <v>1.5</v>
+      </c>
+      <c r="AS70">
+        <v>2</v>
+      </c>
+      <c r="AT70">
+        <v>1.2</v>
+      </c>
+      <c r="AU70">
+        <v>1.53</v>
+      </c>
+      <c r="AV70">
+        <v>1.32</v>
+      </c>
+      <c r="AW70">
+        <v>2.85</v>
+      </c>
+      <c r="AX70">
+        <v>1.91</v>
+      </c>
+      <c r="AY70">
+        <v>6.35</v>
+      </c>
+      <c r="AZ70">
+        <v>2.29</v>
+      </c>
+      <c r="BA70">
+        <v>1.5</v>
+      </c>
+      <c r="BB70">
+        <v>1.87</v>
+      </c>
+      <c r="BC70">
+        <v>2.51</v>
+      </c>
+      <c r="BD70">
+        <v>0</v>
+      </c>
+      <c r="BE70">
+        <v>0</v>
+      </c>
+      <c r="BF70">
+        <v>6</v>
+      </c>
+      <c r="BG70">
+        <v>0</v>
+      </c>
+      <c r="BH70">
+        <v>5</v>
+      </c>
+      <c r="BI70">
+        <v>8</v>
+      </c>
+      <c r="BJ70">
+        <v>11</v>
+      </c>
+      <c r="BK70">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:63">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>5139143</v>
+      </c>
+      <c r="C71" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" t="s">
+        <v>64</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45012.83333333334</v>
+      </c>
+      <c r="F71">
+        <v>9</v>
+      </c>
+      <c r="G71" t="s">
+        <v>75</v>
+      </c>
+      <c r="H71" t="s">
+        <v>69</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>2</v>
+      </c>
+      <c r="N71">
+        <v>4</v>
+      </c>
+      <c r="O71" t="s">
+        <v>134</v>
+      </c>
+      <c r="P71" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
+      <c r="R71">
+        <v>3</v>
+      </c>
+      <c r="S71">
+        <v>4</v>
+      </c>
+      <c r="T71">
+        <v>2.98</v>
+      </c>
+      <c r="U71">
+        <v>2.01</v>
+      </c>
+      <c r="V71">
+        <v>4.38</v>
+      </c>
+      <c r="W71">
+        <v>1.54</v>
+      </c>
+      <c r="X71">
+        <v>2.36</v>
+      </c>
+      <c r="Y71">
+        <v>3.4</v>
+      </c>
+      <c r="Z71">
+        <v>1.27</v>
+      </c>
+      <c r="AA71">
+        <v>8.25</v>
+      </c>
+      <c r="AB71">
+        <v>1.04</v>
+      </c>
+      <c r="AC71">
+        <v>2.16</v>
+      </c>
+      <c r="AD71">
+        <v>2.99</v>
+      </c>
+      <c r="AE71">
+        <v>3.6</v>
+      </c>
+      <c r="AF71">
+        <v>1.07</v>
+      </c>
+      <c r="AG71">
+        <v>6.35</v>
+      </c>
+      <c r="AH71">
+        <v>1.44</v>
+      </c>
+      <c r="AI71">
+        <v>2.51</v>
+      </c>
+      <c r="AJ71">
+        <v>2.4</v>
+      </c>
+      <c r="AK71">
+        <v>1.51</v>
+      </c>
+      <c r="AL71">
+        <v>2.05</v>
+      </c>
+      <c r="AM71">
+        <v>1.7</v>
+      </c>
+      <c r="AN71">
+        <v>1.22</v>
+      </c>
+      <c r="AO71">
+        <v>1.28</v>
+      </c>
+      <c r="AP71">
+        <v>1.63</v>
+      </c>
+      <c r="AQ71">
+        <v>2.33</v>
+      </c>
+      <c r="AR71">
+        <v>0.25</v>
+      </c>
+      <c r="AS71">
+        <v>2</v>
+      </c>
+      <c r="AT71">
+        <v>0.4</v>
+      </c>
+      <c r="AU71">
+        <v>1.16</v>
+      </c>
+      <c r="AV71">
+        <v>1.1</v>
+      </c>
+      <c r="AW71">
+        <v>2.26</v>
+      </c>
+      <c r="AX71">
+        <v>1.61</v>
+      </c>
+      <c r="AY71">
+        <v>7.1</v>
+      </c>
+      <c r="AZ71">
+        <v>2.81</v>
+      </c>
+      <c r="BA71">
+        <v>1.59</v>
+      </c>
+      <c r="BB71">
+        <v>1.99</v>
+      </c>
+      <c r="BC71">
+        <v>2.54</v>
+      </c>
+      <c r="BD71">
+        <v>3.75</v>
+      </c>
+      <c r="BE71">
+        <v>5.1</v>
+      </c>
+      <c r="BF71">
+        <v>4</v>
+      </c>
+      <c r="BG71">
+        <v>5</v>
+      </c>
+      <c r="BH71">
+        <v>2</v>
+      </c>
+      <c r="BI71">
+        <v>1</v>
+      </c>
+      <c r="BJ71">
+        <v>6</v>
+      </c>
+      <c r="BK71">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK72"/>
+  <dimension ref="A1:BK80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>0.4</v>
       </c>
       <c r="AT2" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT3" t="n">
         <v>0.4</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT10" t="n">
         <v>1.2</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AT11" t="n">
         <v>0.4</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT16" t="n">
         <v>0.4</v>
@@ -4151,7 +4151,7 @@
         <v>2.2</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU18" t="n">
         <v>0.96</v>
@@ -4354,7 +4354,7 @@
         <v>2</v>
       </c>
       <c r="AT19" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU19" t="n">
         <v>0.75</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT20" t="n">
         <v>0.6</v>
@@ -4760,7 +4760,7 @@
         <v>3</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU21" t="n">
         <v>1.37</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AT22" t="n">
         <v>1.2</v>
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU23" t="n">
         <v>1.34</v>
@@ -5366,10 +5366,10 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU24" t="n">
         <v>1.43</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT27" t="n">
         <v>0.4</v>
@@ -6181,7 +6181,7 @@
         <v>2</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU28" t="n">
         <v>1.24</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT30" t="n">
         <v>1.5</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT32" t="n">
         <v>0.6</v>
@@ -7196,7 +7196,7 @@
         <v>2</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU33" t="n">
         <v>1.87</v>
@@ -7399,7 +7399,7 @@
         <v>1</v>
       </c>
       <c r="AT34" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU34" t="n">
         <v>1.17</v>
@@ -7602,7 +7602,7 @@
         <v>2.2</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU35" t="n">
         <v>1.32</v>
@@ -7802,7 +7802,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT36" t="n">
         <v>0.4</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AT37" t="n">
         <v>0.6</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT38" t="n">
         <v>1.2</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AT39" t="n">
         <v>1</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT40" t="n">
         <v>0</v>
@@ -8820,7 +8820,7 @@
         <v>2</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU41" t="n">
         <v>1.75</v>
@@ -9023,7 +9023,7 @@
         <v>0.4</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU42" t="n">
         <v>1.66</v>
@@ -9223,7 +9223,7 @@
         <v>2</v>
       </c>
       <c r="AS43" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT43" t="n">
         <v>1.2</v>
@@ -9426,10 +9426,10 @@
         <v>1.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT44" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU44" t="n">
         <v>1</v>
@@ -9632,7 +9632,7 @@
         <v>3</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU45" t="n">
         <v>1.41</v>
@@ -9832,7 +9832,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AT46" t="n">
         <v>1.5</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT47" t="n">
         <v>1</v>
@@ -10241,7 +10241,7 @@
         <v>1</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU48" t="n">
         <v>1.18</v>
@@ -10647,7 +10647,7 @@
         <v>1.75</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU50" t="n">
         <v>1.3</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AT51" t="n">
         <v>0.25</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT52" t="n">
         <v>0.6</v>
@@ -11253,7 +11253,7 @@
         <v>0.33</v>
       </c>
       <c r="AS53" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT53" t="n">
         <v>0.4</v>
@@ -11862,7 +11862,7 @@
         <v>1</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT56" t="n">
         <v>1.5</v>
@@ -12268,10 +12268,10 @@
         <v>0.67</v>
       </c>
       <c r="AS58" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU58" t="n">
         <v>0.87</v>
@@ -12471,10 +12471,10 @@
         <v>1.75</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AT59" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU59" t="n">
         <v>1.12</v>
@@ -12674,7 +12674,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT60" t="n">
         <v>1.2</v>
@@ -13080,10 +13080,10 @@
         <v>1.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU62" t="n">
         <v>1.26</v>
@@ -13283,10 +13283,10 @@
         <v>2</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU63" t="n">
         <v>1.38</v>
@@ -13486,7 +13486,7 @@
         <v>0.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AT64" t="n">
         <v>1</v>
@@ -14504,7 +14504,7 @@
         <v>1.75</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU69" t="n">
         <v>1.17</v>
@@ -15165,6 +15165,1630 @@
       </c>
       <c r="BK72" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>5139150</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45017.71875</v>
+      </c>
+      <c r="F73" t="n">
+        <v>10</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Tigres</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Real Cartagena</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="n">
+        <v>2</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>['65', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>8</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>11</v>
+      </c>
+      <c r="T73" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U73" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V73" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X73" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>5139149</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45017.75</v>
+      </c>
+      <c r="F74" t="n">
+        <v>10</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Orsomarso</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Cortuluá</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" t="n">
+        <v>7</v>
+      </c>
+      <c r="S74" t="n">
+        <v>9</v>
+      </c>
+      <c r="T74" t="n">
+        <v>4</v>
+      </c>
+      <c r="U74" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V74" t="n">
+        <v>3</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X74" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>5139153</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45018.66666666666</v>
+      </c>
+      <c r="F75" t="n">
+        <v>10</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Leones</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Real Santander</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="n">
+        <v>2</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>8</v>
+      </c>
+      <c r="R75" t="n">
+        <v>6</v>
+      </c>
+      <c r="S75" t="n">
+        <v>14</v>
+      </c>
+      <c r="T75" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U75" t="n">
+        <v>2</v>
+      </c>
+      <c r="V75" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X75" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>5139156</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45018.70833333334</v>
+      </c>
+      <c r="F76" t="n">
+        <v>10</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Valledupar</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Deportes Quindío</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="n">
+        <v>2</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>9</v>
+      </c>
+      <c r="R76" t="n">
+        <v>1</v>
+      </c>
+      <c r="S76" t="n">
+        <v>10</v>
+      </c>
+      <c r="T76" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U76" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V76" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X76" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>5139152</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45018.71875</v>
+      </c>
+      <c r="F77" t="n">
+        <v>10</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Fortaleza CEIF</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>2</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>3</v>
+      </c>
+      <c r="L77" t="n">
+        <v>3</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="n">
+        <v>4</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>['18', '29', '55']</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>7</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1</v>
+      </c>
+      <c r="S77" t="n">
+        <v>8</v>
+      </c>
+      <c r="T77" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U77" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V77" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X77" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>5139154</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45018.86111111111</v>
+      </c>
+      <c r="F78" t="n">
+        <v>10</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Universitario Popayán</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="n">
+        <v>2</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="n">
+        <v>3</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>['19', '80']</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>9</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>13</v>
+      </c>
+      <c r="T78" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U78" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V78" t="n">
+        <v>6</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X78" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>5139151</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45019.75</v>
+      </c>
+      <c r="F79" t="n">
+        <v>10</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Cúcuta Deportivo</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>2</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>2</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>['67', '79']</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>2</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>7</v>
+      </c>
+      <c r="T79" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U79" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>6</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X79" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>5139155</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45019.83680555555</v>
+      </c>
+      <c r="F80" t="n">
+        <v>10</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Atlético</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Patriotas Boyacá</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>6</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>11</v>
+      </c>
+      <c r="T80" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2</v>
+      </c>
+      <c r="V80" t="n">
+        <v>3</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X80" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK80"/>
+  <dimension ref="A1:BK84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>2.6</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT4" t="n">
         <v>1</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT8" t="n">
         <v>1</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.8</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AT12" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>2.2</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT18" t="n">
         <v>1.2</v>
@@ -4351,7 +4351,7 @@
         <v>1</v>
       </c>
       <c r="AS19" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AT19" t="n">
         <v>2.17</v>
@@ -4557,7 +4557,7 @@
         <v>2.6</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU20" t="n">
         <v>0.68</v>
@@ -5572,7 +5572,7 @@
         <v>2</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AU25" t="n">
         <v>2.14</v>
@@ -5978,7 +5978,7 @@
         <v>2.4</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU27" t="n">
         <v>1.9</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT28" t="n">
         <v>0.4</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT29" t="n">
         <v>1</v>
@@ -6790,7 +6790,7 @@
         <v>0.4</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU31" t="n">
         <v>1.7</v>
@@ -6993,7 +6993,7 @@
         <v>2.2</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU32" t="n">
         <v>1.62</v>
@@ -7599,7 +7599,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT35" t="n">
         <v>0.6</v>
@@ -8008,7 +8008,7 @@
         <v>1.8</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU37" t="n">
         <v>1.07</v>
@@ -8817,7 +8817,7 @@
         <v>0.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT41" t="n">
         <v>1.2</v>
@@ -9226,7 +9226,7 @@
         <v>2.2</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU43" t="n">
         <v>1.34</v>
@@ -10441,10 +10441,10 @@
         <v>1.67</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU49" t="n">
         <v>1.57</v>
@@ -10644,7 +10644,7 @@
         <v>0.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT50" t="n">
         <v>0.6</v>
@@ -10850,7 +10850,7 @@
         <v>0.67</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AU51" t="n">
         <v>1.29</v>
@@ -11053,7 +11053,7 @@
         <v>2.4</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU52" t="n">
         <v>1.6</v>
@@ -11456,10 +11456,10 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU54" t="n">
         <v>1.08</v>
@@ -12065,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT57" t="n">
         <v>0</v>
@@ -13692,7 +13692,7 @@
         <v>3</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AU65" t="n">
         <v>1.45</v>
@@ -13895,7 +13895,7 @@
         <v>2</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU66" t="n">
         <v>1.54</v>
@@ -14098,7 +14098,7 @@
         <v>1</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU67" t="n">
         <v>1.4</v>
@@ -14298,7 +14298,7 @@
         <v>1.25</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT68" t="n">
         <v>1.2</v>
@@ -14501,7 +14501,7 @@
         <v>0</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT69" t="n">
         <v>0.6</v>
@@ -14704,10 +14704,10 @@
         <v>1.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU70" t="n">
         <v>1.53</v>
@@ -14907,7 +14907,7 @@
         <v>0.25</v>
       </c>
       <c r="AS71" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AT71" t="n">
         <v>0.4</v>
@@ -16789,6 +16789,818 @@
       </c>
       <c r="BK80" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>5139159</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45024.71875</v>
+      </c>
+      <c r="F81" t="n">
+        <v>11</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Universitario Popayán</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Tigres</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2</v>
+      </c>
+      <c r="K81" t="n">
+        <v>3</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" t="n">
+        <v>3</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>['9', '20']</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>6</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2</v>
+      </c>
+      <c r="S81" t="n">
+        <v>8</v>
+      </c>
+      <c r="T81" t="n">
+        <v>3</v>
+      </c>
+      <c r="U81" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V81" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X81" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>5139161</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45025.70833333334</v>
+      </c>
+      <c r="F82" t="n">
+        <v>11</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Real Santander</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Orsomarso</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="n">
+        <v>1</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>17</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1</v>
+      </c>
+      <c r="S82" t="n">
+        <v>18</v>
+      </c>
+      <c r="T82" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U82" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V82" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X82" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>26</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>5139160</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45025.75694444445</v>
+      </c>
+      <c r="F83" t="n">
+        <v>11</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Real Cartagena</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Cúcuta Deportivo</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="n">
+        <v>2</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="n">
+        <v>4</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>['2', '85']</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>['57', '70']</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" t="n">
+        <v>7</v>
+      </c>
+      <c r="S83" t="n">
+        <v>7</v>
+      </c>
+      <c r="T83" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U83" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V83" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X83" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>5139158</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45025.9375</v>
+      </c>
+      <c r="F84" t="n">
+        <v>11</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Cortuluá</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Fortaleza CEIF</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="n">
+        <v>1</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>8</v>
+      </c>
+      <c r="T84" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U84" t="n">
+        <v>2</v>
+      </c>
+      <c r="V84" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X84" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK84"/>
+  <dimension ref="A1:BK88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AT2" t="n">
         <v>2.17</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.8</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="AS21" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AT21" t="n">
         <v>0.6</v>
@@ -4963,7 +4963,7 @@
         <v>0.67</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU22" t="n">
         <v>1.77</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT23" t="n">
         <v>1.2</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT25" t="n">
         <v>0.8</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AT26" t="n">
         <v>0</v>
@@ -6587,7 +6587,7 @@
         <v>1.2</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AT31" t="n">
         <v>1.17</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT33" t="n">
         <v>0.6</v>
@@ -7396,7 +7396,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT34" t="n">
         <v>2.17</v>
@@ -7805,7 +7805,7 @@
         <v>2.6</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU36" t="n">
         <v>1.09</v>
@@ -8211,7 +8211,7 @@
         <v>1.8</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU38" t="n">
         <v>0.32</v>
@@ -9020,7 +9020,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AT42" t="n">
         <v>2</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AT45" t="n">
         <v>0.4</v>
@@ -9835,7 +9835,7 @@
         <v>1.8</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU46" t="n">
         <v>1.06</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT48" t="n">
         <v>0.6</v>
@@ -11256,7 +11256,7 @@
         <v>1.8</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU53" t="n">
         <v>0.67</v>
@@ -11659,7 +11659,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT55" t="n">
         <v>1</v>
@@ -11865,7 +11865,7 @@
         <v>1.4</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU56" t="n">
         <v>1.63</v>
@@ -12677,7 +12677,7 @@
         <v>2.2</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU60" t="n">
         <v>1.49</v>
@@ -12877,7 +12877,7 @@
         <v>0.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AT61" t="n">
         <v>1</v>
@@ -13689,7 +13689,7 @@
         <v>0.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AT65" t="n">
         <v>0.8</v>
@@ -13892,7 +13892,7 @@
         <v>0.25</v>
       </c>
       <c r="AS66" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT66" t="n">
         <v>0.83</v>
@@ -14095,7 +14095,7 @@
         <v>0</v>
       </c>
       <c r="AS67" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT67" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         <v>1.83</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU68" t="n">
         <v>1.76</v>
@@ -14910,7 +14910,7 @@
         <v>1.6</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU71" t="n">
         <v>1.16</v>
@@ -15110,7 +15110,7 @@
         <v>1</v>
       </c>
       <c r="AS72" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AT72" t="n">
         <v>1</v>
@@ -17600,6 +17600,818 @@
         <v>3</v>
       </c>
       <c r="BK84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>5139157</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45026.70833333334</v>
+      </c>
+      <c r="F85" t="n">
+        <v>11</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Leones</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>3</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" t="n">
+        <v>4</v>
+      </c>
+      <c r="L85" t="n">
+        <v>4</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="n">
+        <v>7</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>['4', '8', '36', '50']</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>['30', '66', '72']</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>9</v>
+      </c>
+      <c r="T85" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="U85" t="n">
+        <v>2</v>
+      </c>
+      <c r="V85" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X85" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>5139164</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45026.75</v>
+      </c>
+      <c r="F86" t="n">
+        <v>11</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Patriotas Boyacá</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Valledupar</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>10</v>
+      </c>
+      <c r="R86" t="n">
+        <v>1</v>
+      </c>
+      <c r="S86" t="n">
+        <v>11</v>
+      </c>
+      <c r="T86" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U86" t="n">
+        <v>2</v>
+      </c>
+      <c r="V86" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X86" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>5139162</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45026.79166666666</v>
+      </c>
+      <c r="F87" t="n">
+        <v>11</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="n">
+        <v>1</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>7</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2</v>
+      </c>
+      <c r="S87" t="n">
+        <v>9</v>
+      </c>
+      <c r="T87" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U87" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V87" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X87" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>5139163</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45026.91666666666</v>
+      </c>
+      <c r="F88" t="n">
+        <v>11</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Deportes Quindío</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Atlético</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="n">
+        <v>2</v>
+      </c>
+      <c r="L88" t="n">
+        <v>4</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="n">
+        <v>6</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>['20', '56', '84', '90+5']</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>['40', '73']</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>9</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>14</v>
+      </c>
+      <c r="T88" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U88" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V88" t="n">
+        <v>6</v>
+      </c>
+      <c r="W88" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X88" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK88" t="n">
         <v>7</v>
       </c>
     </row>
